--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_15_40.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_15_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2960069.18554819</v>
+        <v>2959426.092016844</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058548</v>
+        <v>632041.4518058543</v>
       </c>
     </row>
     <row r="9">
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>122.066313916455</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>122.066313916455</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>18.38503294741348</v>
+        <v>122.0663139164549</v>
       </c>
       <c r="H11" t="n">
-        <v>122.066313916455</v>
+        <v>59.58074360155794</v>
       </c>
       <c r="I11" t="n">
-        <v>40.30837441080942</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.89215678789337</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>21.93044515149714</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>49.63597450243699</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>120.3656051100733</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>122.0663139164549</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>122.066313916455</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.537789814704855</v>
+        <v>6.537789814704876</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>40.33682227034735</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>122.066313916455</v>
+        <v>14.4462722810735</v>
       </c>
       <c r="U12" t="n">
-        <v>36.71372005942042</v>
+        <v>122.0663139164549</v>
       </c>
       <c r="V12" t="n">
-        <v>40.13474241632369</v>
+        <v>122.0663139164549</v>
       </c>
       <c r="W12" t="n">
-        <v>66.19040507793304</v>
+        <v>122.0663139164549</v>
       </c>
       <c r="X12" t="n">
-        <v>16.79873594039205</v>
+        <v>63.66183956688813</v>
       </c>
       <c r="Y12" t="n">
-        <v>22.87010763494706</v>
+        <v>22.87010763494695</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>2.817838508836896</v>
+        <v>2.817838508836788</v>
       </c>
       <c r="S13" t="n">
-        <v>34.88590409371408</v>
+        <v>34.88590409371397</v>
       </c>
       <c r="T13" t="n">
-        <v>23.23807268286035</v>
+        <v>23.23807268286024</v>
       </c>
       <c r="U13" t="n">
-        <v>88.14225965329491</v>
+        <v>88.1422596532948</v>
       </c>
       <c r="V13" t="n">
-        <v>44.59483668537135</v>
+        <v>44.59483668537123</v>
       </c>
       <c r="W13" t="n">
-        <v>89.79652859025677</v>
+        <v>89.79652859025666</v>
       </c>
       <c r="X13" t="n">
-        <v>21.40527690916397</v>
+        <v>21.40527690916386</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.62709431508986</v>
+        <v>16.62709431508975</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>18.38503294741351</v>
+        <v>107.5160092976134</v>
       </c>
       <c r="H14" t="n">
-        <v>122.0663139164549</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>40.30837441080934</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.89215678789327</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>21.93044515149705</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>122.0663139164549</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>122.0663139164549</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>122.0663139164549</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>66.02529240559784</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1695,64 +1695,64 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>25.89054998927411</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>6.537789814704876</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>14.4462722810735</v>
+      </c>
+      <c r="U15" t="n">
+        <v>36.71372005942031</v>
+      </c>
+      <c r="V15" t="n">
         <v>122.0663139164549</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>6.537789814704855</v>
-      </c>
-      <c r="R15" t="n">
-        <v>122.0663139164549</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>14.44627228107353</v>
-      </c>
-      <c r="U15" t="n">
-        <v>36.71372005942034</v>
-      </c>
-      <c r="V15" t="n">
-        <v>40.1347424163236</v>
-      </c>
       <c r="W15" t="n">
-        <v>66.19040507793295</v>
+        <v>66.19040507793292</v>
       </c>
       <c r="X15" t="n">
-        <v>16.79873594039196</v>
+        <v>16.79873594039194</v>
       </c>
       <c r="Y15" t="n">
-        <v>22.87010763494698</v>
+        <v>22.87010763494695</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>2.817838508836811</v>
+        <v>2.817838508836788</v>
       </c>
       <c r="S16" t="n">
-        <v>34.885904093714</v>
+        <v>34.88590409371397</v>
       </c>
       <c r="T16" t="n">
-        <v>23.23807268286027</v>
+        <v>23.23807268286024</v>
       </c>
       <c r="U16" t="n">
-        <v>88.14225965329483</v>
+        <v>88.1422596532948</v>
       </c>
       <c r="V16" t="n">
-        <v>44.59483668537126</v>
+        <v>44.59483668537123</v>
       </c>
       <c r="W16" t="n">
-        <v>89.79652859025668</v>
+        <v>89.79652859025666</v>
       </c>
       <c r="X16" t="n">
-        <v>21.40527690916389</v>
+        <v>21.40527690916386</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.62709431508978</v>
+        <v>16.62709431508975</v>
       </c>
     </row>
     <row r="17">
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>100.9782194829086</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1935,49 +1935,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>107.5160092976134</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
         <v>122.0663139164549</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>6.537789814704855</v>
-      </c>
-      <c r="R18" t="n">
-        <v>122.0663139164549</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>122.0663139164549</v>
       </c>
     </row>
     <row r="19">
@@ -2096,7 +2096,7 @@
         <v>97.95353321432037</v>
       </c>
       <c r="H20" t="n">
-        <v>26.09188206406094</v>
+        <v>26.091882064062</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2160,67 +2160,67 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>122.0663139164549</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>48.74852802240989</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
         <v>122.0663139164549</v>
       </c>
-      <c r="G21" t="n">
+      <c r="U21" t="n">
         <v>122.0663139164549</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>52.22969146049874</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>6.537789814704855</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>122.0663139164549</v>
+        <v>107.5160092976134</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>122.0663139164549</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>52.22969146049874</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,13 +2439,13 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.537789814704876</v>
       </c>
       <c r="R24" t="n">
-        <v>122.0663139164549</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>122.0663139164549</v>
+        <v>122.0663139164547</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2454,13 +2454,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>55.28631783711471</v>
+        <v>100.9782194829085</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>122.0663139164547</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>122.0663139164547</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>133.7437840190689</v>
       </c>
       <c r="I26" t="n">
-        <v>27.59467125574388</v>
+        <v>27.59467125574389</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.17845363282784</v>
+        <v>14.17845363282785</v>
       </c>
       <c r="T26" t="n">
         <v>9.216741996431622</v>
@@ -2631,22 +2631,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>60.34585312982642</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>148.7420062111044</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>52.22969146049874</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2676,28 +2676,28 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.537789814704855</v>
+        <v>6.537789814704876</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.5584805328358</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.732569126008087</v>
+        <v>1.732569126008088</v>
       </c>
       <c r="U27" t="n">
-        <v>24.00001690435489</v>
+        <v>88.57196978669199</v>
       </c>
       <c r="V27" t="n">
         <v>27.42103926125816</v>
       </c>
       <c r="W27" t="n">
-        <v>53.47670192286751</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>4.085032785326518</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
         <v>10.15640447988153</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>160.8593587236893</v>
+        <v>160.8593587236892</v>
       </c>
       <c r="C29" t="n">
-        <v>136.9776157270348</v>
+        <v>136.9776157270347</v>
       </c>
       <c r="D29" t="n">
-        <v>124.5442779880833</v>
+        <v>124.5442779880832</v>
       </c>
       <c r="E29" t="n">
-        <v>158.2510304074922</v>
+        <v>158.251030407492</v>
       </c>
       <c r="F29" t="n">
-        <v>189.9713679858695</v>
+        <v>189.9713679858694</v>
       </c>
       <c r="G29" t="n">
-        <v>205.6054351693284</v>
+        <v>205.6054351693283</v>
       </c>
       <c r="H29" t="n">
-        <v>133.743784019069</v>
+        <v>133.7437840190688</v>
       </c>
       <c r="I29" t="n">
-        <v>27.59467125574398</v>
+        <v>27.59467125574386</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.17845363282792</v>
+        <v>14.17845363282783</v>
       </c>
       <c r="T29" t="n">
-        <v>9.216741996431708</v>
+        <v>9.216741996431608</v>
       </c>
       <c r="U29" t="n">
-        <v>36.92227134737166</v>
+        <v>36.92227134737155</v>
       </c>
       <c r="V29" t="n">
-        <v>107.651901955008</v>
+        <v>107.6519019550079</v>
       </c>
       <c r="W29" t="n">
-        <v>124.6685821716229</v>
+        <v>124.6685821716228</v>
       </c>
       <c r="X29" t="n">
-        <v>146.5548326405621</v>
+        <v>146.554832640562</v>
       </c>
       <c r="Y29" t="n">
-        <v>169.0576857643059</v>
+        <v>169.0576857643058</v>
       </c>
     </row>
     <row r="30">
@@ -2877,16 +2877,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7420062111044</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>125.7104308301762</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2913,31 +2913,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.537789814704855</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.5584805328358</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.5425297146649</v>
       </c>
       <c r="T30" t="n">
-        <v>1.732569126008172</v>
+        <v>94.52766376252919</v>
       </c>
       <c r="U30" t="n">
-        <v>24.00001690435498</v>
+        <v>237.227898558499</v>
       </c>
       <c r="V30" t="n">
-        <v>27.42103926125824</v>
+        <v>27.42103926125813</v>
       </c>
       <c r="W30" t="n">
-        <v>53.47670192286759</v>
+        <v>53.47670192286748</v>
       </c>
       <c r="X30" t="n">
-        <v>4.085032785326604</v>
+        <v>4.08503278532649</v>
       </c>
       <c r="Y30" t="n">
-        <v>30.63915320233379</v>
+        <v>10.1564044798815</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.17220093864864</v>
+        <v>22.17220093864853</v>
       </c>
       <c r="T31" t="n">
-        <v>10.5243695277949</v>
+        <v>10.52436952779479</v>
       </c>
       <c r="U31" t="n">
-        <v>75.42855649822947</v>
+        <v>75.42855649822936</v>
       </c>
       <c r="V31" t="n">
-        <v>31.8811335303059</v>
+        <v>31.88113353030579</v>
       </c>
       <c r="W31" t="n">
-        <v>77.08282543519132</v>
+        <v>77.08282543519121</v>
       </c>
       <c r="X31" t="n">
-        <v>8.691573754098528</v>
+        <v>8.691573754098414</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.913391160024418</v>
+        <v>3.913391160024304</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>133.7437840190688</v>
       </c>
       <c r="I32" t="n">
-        <v>27.59467125574385</v>
+        <v>27.59467125574386</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.17845363282781</v>
+        <v>14.1784536328278</v>
       </c>
       <c r="T32" t="n">
-        <v>9.216741996431594</v>
+        <v>9.21674199643158</v>
       </c>
       <c r="U32" t="n">
         <v>36.92227134737155</v>
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3150,28 +3150,28 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.537789814704855</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.5584805328358</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>191.5425297146649</v>
       </c>
       <c r="T33" t="n">
         <v>1.732569126008058</v>
       </c>
       <c r="U33" t="n">
-        <v>42.15008860986698</v>
+        <v>237.227898558499</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>27.42103926125813</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>53.47670192286748</v>
       </c>
       <c r="X33" t="n">
-        <v>4.08503278532649</v>
+        <v>90.34233760714288</v>
       </c>
       <c r="Y33" t="n">
         <v>10.1564044798815</v>
@@ -3278,7 +3278,7 @@
         <v>154.7442776390381</v>
       </c>
       <c r="G35" t="n">
-        <v>170.3783448224971</v>
+        <v>170.378344822497</v>
       </c>
       <c r="H35" t="n">
         <v>98.51669367223761</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.695181000540311</v>
+        <v>1.695181000540316</v>
       </c>
       <c r="V35" t="n">
         <v>72.42481160817667</v>
@@ -3345,16 +3345,16 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>57.40466188115399</v>
+        <v>191.5425297146649</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3402,13 +3402,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>77.43572328671564</v>
       </c>
       <c r="W36" t="n">
-        <v>18.24961157603624</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3579,19 +3579,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>191.5425297146649</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9604507801522</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3642,13 +3642,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>71.62989526689117</v>
+        <v>18.24961157603624</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>119.650908129983</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -3737,19 +3737,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>133.2646874679454</v>
+        <v>133.2646874679453</v>
       </c>
       <c r="C41" t="n">
-        <v>109.3829444712909</v>
+        <v>109.3829444712908</v>
       </c>
       <c r="D41" t="n">
-        <v>5.360577639290624</v>
+        <v>96.94960673233928</v>
       </c>
       <c r="E41" t="n">
-        <v>130.6563591517482</v>
+        <v>130.6563591517481</v>
       </c>
       <c r="F41" t="n">
-        <v>162.3766967301255</v>
+        <v>70.78766763707725</v>
       </c>
       <c r="G41" t="n">
         <v>178.0107639135844</v>
@@ -3794,16 +3794,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.327600091627716</v>
+        <v>9.327600091627653</v>
       </c>
       <c r="V41" t="n">
-        <v>80.05723069926407</v>
+        <v>80.05723069926401</v>
       </c>
       <c r="W41" t="n">
-        <v>97.07391091587894</v>
+        <v>97.07391091587888</v>
       </c>
       <c r="X41" t="n">
-        <v>118.9601613848182</v>
+        <v>118.9601613848181</v>
       </c>
       <c r="Y41" t="n">
         <v>141.4630145085619</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3825,10 +3825,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>136.9458681223489</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>52.22969146049874</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3870,22 +3870,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9604507801522</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>25.88203066712364</v>
+        <v>25.88203066712359</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>191.7474821199391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.83388524248552</v>
+        <v>47.83388524248547</v>
       </c>
       <c r="V43" t="n">
-        <v>4.286462274561956</v>
+        <v>4.286462274561899</v>
       </c>
       <c r="W43" t="n">
-        <v>49.48815417944738</v>
+        <v>49.48815417944732</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>41.67565837489746</v>
+        <v>133.2646874679454</v>
       </c>
       <c r="C44" t="n">
         <v>109.3829444712908</v>
@@ -3992,7 +3992,7 @@
         <v>178.0107639135844</v>
       </c>
       <c r="H44" t="n">
-        <v>106.149112763325</v>
+        <v>14.56008367027686</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4056,13 +4056,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4107,22 +4107,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9604507801522</v>
       </c>
       <c r="U45" t="n">
-        <v>237.227898558499</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>156.4221290951981</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>112.1584015841204</v>
       </c>
     </row>
     <row r="46">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>438.9494961310818</v>
+        <v>193.2471813941375</v>
       </c>
       <c r="C11" t="n">
-        <v>315.6501891447637</v>
+        <v>193.2471813941375</v>
       </c>
       <c r="D11" t="n">
-        <v>315.6501891447637</v>
+        <v>193.2471813941375</v>
       </c>
       <c r="E11" t="n">
-        <v>192.3508821584456</v>
+        <v>193.2471813941375</v>
       </c>
       <c r="F11" t="n">
-        <v>192.3508821584456</v>
+        <v>193.2471813941375</v>
       </c>
       <c r="G11" t="n">
-        <v>173.7801418075229</v>
+        <v>69.94787440781937</v>
       </c>
       <c r="H11" t="n">
-        <v>50.4808348212047</v>
+        <v>9.765305113316391</v>
       </c>
       <c r="I11" t="n">
-        <v>9.765305113316398</v>
+        <v>9.765305113316391</v>
       </c>
       <c r="J11" t="n">
-        <v>130.6109558906068</v>
+        <v>41.20265086098932</v>
       </c>
       <c r="K11" t="n">
-        <v>130.6109558906068</v>
+        <v>162.0483016382797</v>
       </c>
       <c r="L11" t="n">
-        <v>178.090470202575</v>
+        <v>209.5278159502478</v>
       </c>
       <c r="M11" t="n">
-        <v>259.7965378821532</v>
+        <v>291.233883629826</v>
       </c>
       <c r="N11" t="n">
-        <v>335.9822591408565</v>
+        <v>367.4196048885292</v>
       </c>
       <c r="O11" t="n">
-        <v>371.0129166049417</v>
+        <v>488.2652556658196</v>
       </c>
       <c r="P11" t="n">
-        <v>378.0516743033172</v>
+        <v>488.2652556658196</v>
       </c>
       <c r="Q11" t="n">
-        <v>488.2652556658198</v>
+        <v>488.2652556658196</v>
       </c>
       <c r="R11" t="n">
-        <v>488.2652556658198</v>
+        <v>488.2652556658196</v>
       </c>
       <c r="S11" t="n">
-        <v>461.101460930574</v>
+        <v>488.2652556658196</v>
       </c>
       <c r="T11" t="n">
-        <v>438.9494961310818</v>
+        <v>488.2652556658196</v>
       </c>
       <c r="U11" t="n">
-        <v>438.9494961310818</v>
+        <v>438.12790768356</v>
       </c>
       <c r="V11" t="n">
-        <v>438.9494961310818</v>
+        <v>316.5464883804556</v>
       </c>
       <c r="W11" t="n">
-        <v>438.9494961310818</v>
+        <v>193.2471813941375</v>
       </c>
       <c r="X11" t="n">
-        <v>438.9494961310818</v>
+        <v>193.2471813941375</v>
       </c>
       <c r="Y11" t="n">
-        <v>438.9494961310818</v>
+        <v>193.2471813941375</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>133.0646120996345</v>
+        <v>9.765305113316391</v>
       </c>
       <c r="C12" t="n">
-        <v>133.0646120996345</v>
+        <v>9.765305113316391</v>
       </c>
       <c r="D12" t="n">
-        <v>133.0646120996345</v>
+        <v>9.765305113316391</v>
       </c>
       <c r="E12" t="n">
-        <v>133.0646120996345</v>
+        <v>9.765305113316391</v>
       </c>
       <c r="F12" t="n">
-        <v>9.765305113316398</v>
+        <v>9.765305113316391</v>
       </c>
       <c r="G12" t="n">
-        <v>9.765305113316398</v>
+        <v>9.765305113316391</v>
       </c>
       <c r="H12" t="n">
-        <v>9.765305113316398</v>
+        <v>9.765305113316391</v>
       </c>
       <c r="I12" t="n">
-        <v>9.765305113316398</v>
+        <v>9.765305113316391</v>
       </c>
       <c r="J12" t="n">
-        <v>9.765305113316398</v>
+        <v>9.765305113316391</v>
       </c>
       <c r="K12" t="n">
-        <v>48.14399808280756</v>
+        <v>48.14399808280753</v>
       </c>
       <c r="L12" t="n">
-        <v>48.14399808280756</v>
+        <v>162.457648023025</v>
       </c>
       <c r="M12" t="n">
-        <v>168.989648860098</v>
+        <v>162.457648023025</v>
       </c>
       <c r="N12" t="n">
-        <v>283.3032988003155</v>
+        <v>283.3032988003154</v>
       </c>
       <c r="O12" t="n">
-        <v>404.1489495776059</v>
+        <v>404.1489495776057</v>
       </c>
       <c r="P12" t="n">
-        <v>488.2652556658198</v>
+        <v>488.2652556658196</v>
       </c>
       <c r="Q12" t="n">
-        <v>481.6614275701584</v>
+        <v>481.6614275701581</v>
       </c>
       <c r="R12" t="n">
-        <v>481.6614275701584</v>
+        <v>481.6614275701581</v>
       </c>
       <c r="S12" t="n">
-        <v>440.9171626506156</v>
+        <v>481.6614275701581</v>
       </c>
       <c r="T12" t="n">
-        <v>317.6178556642975</v>
+        <v>467.0692333468515</v>
       </c>
       <c r="U12" t="n">
-        <v>280.5332899477112</v>
+        <v>343.7699263605334</v>
       </c>
       <c r="V12" t="n">
-        <v>239.9931460928387</v>
+        <v>220.4706193742153</v>
       </c>
       <c r="W12" t="n">
-        <v>173.1341510646236</v>
+        <v>97.17131238789727</v>
       </c>
       <c r="X12" t="n">
-        <v>156.1657309228134</v>
+        <v>32.86642393649512</v>
       </c>
       <c r="Y12" t="n">
-        <v>133.0646120996345</v>
+        <v>9.765305113316391</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.765305113316398</v>
+        <v>9.765305113316391</v>
       </c>
       <c r="C13" t="n">
-        <v>43.48173266515154</v>
+        <v>9.765305113316391</v>
       </c>
       <c r="D13" t="n">
-        <v>98.25994563103571</v>
+        <v>9.765305113316391</v>
       </c>
       <c r="E13" t="n">
-        <v>98.25994563103571</v>
+        <v>68.01496202730154</v>
       </c>
       <c r="F13" t="n">
-        <v>159.2313689488613</v>
+        <v>68.01496202730154</v>
       </c>
       <c r="G13" t="n">
-        <v>159.2313689488613</v>
+        <v>68.01496202730154</v>
       </c>
       <c r="H13" t="n">
-        <v>193.5934253537544</v>
+        <v>68.01496202730154</v>
       </c>
       <c r="I13" t="n">
-        <v>228.9628759345492</v>
+        <v>68.01496202730154</v>
       </c>
       <c r="J13" t="n">
-        <v>228.9628759345492</v>
+        <v>147.6392527661413</v>
       </c>
       <c r="K13" t="n">
-        <v>228.9628759345492</v>
+        <v>147.6392527661413</v>
       </c>
       <c r="L13" t="n">
-        <v>228.9628759345492</v>
+        <v>268.4849035434317</v>
       </c>
       <c r="M13" t="n">
-        <v>228.9628759345492</v>
+        <v>334.5206702027985</v>
       </c>
       <c r="N13" t="n">
-        <v>261.7758709617106</v>
+        <v>334.5206702027985</v>
       </c>
       <c r="O13" t="n">
-        <v>261.7758709617106</v>
+        <v>334.5206702027985</v>
       </c>
       <c r="P13" t="n">
-        <v>261.7758709617106</v>
+        <v>334.5206702027985</v>
       </c>
       <c r="Q13" t="n">
-        <v>334.5206702027994</v>
+        <v>334.5206702027985</v>
       </c>
       <c r="R13" t="n">
-        <v>331.6743686787217</v>
+        <v>331.674368678721</v>
       </c>
       <c r="S13" t="n">
-        <v>296.4360817153742</v>
+        <v>296.4360817153735</v>
       </c>
       <c r="T13" t="n">
-        <v>272.9632810256163</v>
+        <v>272.9632810256157</v>
       </c>
       <c r="U13" t="n">
-        <v>183.9306955172376</v>
+        <v>183.9306955172371</v>
       </c>
       <c r="V13" t="n">
-        <v>138.8854059360544</v>
+        <v>138.885405936054</v>
       </c>
       <c r="W13" t="n">
-        <v>48.18184170347179</v>
+        <v>48.18184170347156</v>
       </c>
       <c r="X13" t="n">
-        <v>26.56034987603343</v>
+        <v>26.56034987603331</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.765305113316398</v>
+        <v>9.765305113316391</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>315.6501891447637</v>
+        <v>241.6666416931834</v>
       </c>
       <c r="C14" t="n">
-        <v>192.3508821584454</v>
+        <v>118.3673347068653</v>
       </c>
       <c r="D14" t="n">
-        <v>192.3508821584454</v>
+        <v>118.3673347068653</v>
       </c>
       <c r="E14" t="n">
-        <v>192.3508821584454</v>
+        <v>118.3673347068653</v>
       </c>
       <c r="F14" t="n">
-        <v>192.3508821584454</v>
+        <v>118.3673347068653</v>
       </c>
       <c r="G14" t="n">
-        <v>173.7801418075227</v>
+        <v>9.765305113316391</v>
       </c>
       <c r="H14" t="n">
-        <v>50.48083482120461</v>
+        <v>9.765305113316391</v>
       </c>
       <c r="I14" t="n">
         <v>9.765305113316391</v>
       </c>
       <c r="J14" t="n">
-        <v>10.92576201814903</v>
+        <v>130.6109558906067</v>
       </c>
       <c r="K14" t="n">
-        <v>131.7714127954394</v>
+        <v>130.6109558906067</v>
       </c>
       <c r="L14" t="n">
-        <v>179.2509271074076</v>
+        <v>178.0904702025749</v>
       </c>
       <c r="M14" t="n">
-        <v>260.9569947869858</v>
+        <v>259.7965378821531</v>
       </c>
       <c r="N14" t="n">
-        <v>337.142716045689</v>
+        <v>367.4196048885292</v>
       </c>
       <c r="O14" t="n">
-        <v>372.1733735097743</v>
+        <v>488.2652556658196</v>
       </c>
       <c r="P14" t="n">
-        <v>372.1733735097743</v>
+        <v>488.2652556658196</v>
       </c>
       <c r="Q14" t="n">
-        <v>482.386954872277</v>
+        <v>488.2652556658196</v>
       </c>
       <c r="R14" t="n">
         <v>488.2652556658196</v>
       </c>
       <c r="S14" t="n">
-        <v>461.1014609305738</v>
+        <v>488.2652556658196</v>
       </c>
       <c r="T14" t="n">
-        <v>438.9494961310818</v>
+        <v>488.2652556658196</v>
       </c>
       <c r="U14" t="n">
-        <v>438.9494961310818</v>
+        <v>488.2652556658196</v>
       </c>
       <c r="V14" t="n">
-        <v>438.9494961310818</v>
+        <v>488.2652556658196</v>
       </c>
       <c r="W14" t="n">
-        <v>315.6501891447637</v>
+        <v>364.9659486795015</v>
       </c>
       <c r="X14" t="n">
-        <v>315.6501891447637</v>
+        <v>241.6666416931834</v>
       </c>
       <c r="Y14" t="n">
-        <v>315.6501891447637</v>
+        <v>241.6666416931834</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>159.216682795871</v>
+        <v>76.45751966442532</v>
       </c>
       <c r="C15" t="n">
-        <v>159.216682795871</v>
+        <v>9.765305113316391</v>
       </c>
       <c r="D15" t="n">
-        <v>159.216682795871</v>
+        <v>9.765305113316391</v>
       </c>
       <c r="E15" t="n">
-        <v>159.216682795871</v>
+        <v>9.765305113316391</v>
       </c>
       <c r="F15" t="n">
-        <v>133.0646120996345</v>
+        <v>9.765305113316391</v>
       </c>
       <c r="G15" t="n">
         <v>9.765305113316391</v>
@@ -5358,16 +5358,16 @@
         <v>9.765305113316391</v>
       </c>
       <c r="K15" t="n">
-        <v>48.14399808280754</v>
+        <v>44.56621676605538</v>
       </c>
       <c r="L15" t="n">
-        <v>166.0354293397772</v>
+        <v>162.457648023025</v>
       </c>
       <c r="M15" t="n">
-        <v>166.0354293397772</v>
+        <v>283.3032988003154</v>
       </c>
       <c r="N15" t="n">
-        <v>283.3032988003153</v>
+        <v>283.3032988003154</v>
       </c>
       <c r="O15" t="n">
         <v>404.1489495776057</v>
@@ -5379,28 +5379,28 @@
         <v>481.6614275701581</v>
       </c>
       <c r="R15" t="n">
-        <v>358.36212058384</v>
+        <v>481.6614275701581</v>
       </c>
       <c r="S15" t="n">
-        <v>358.36212058384</v>
+        <v>481.6614275701581</v>
       </c>
       <c r="T15" t="n">
-        <v>343.7699263605334</v>
+        <v>467.0692333468515</v>
       </c>
       <c r="U15" t="n">
-        <v>306.6853606439472</v>
+        <v>429.9846676302653</v>
       </c>
       <c r="V15" t="n">
-        <v>266.1452167890749</v>
+        <v>306.6853606439473</v>
       </c>
       <c r="W15" t="n">
-        <v>199.2862217608598</v>
+        <v>239.8263656157322</v>
       </c>
       <c r="X15" t="n">
-        <v>182.3178016190497</v>
+        <v>222.8579454739221</v>
       </c>
       <c r="Y15" t="n">
-        <v>159.216682795871</v>
+        <v>199.7568266507434</v>
       </c>
     </row>
     <row r="16">
@@ -5419,64 +5419,64 @@
         <v>9.765305113316391</v>
       </c>
       <c r="E16" t="n">
-        <v>68.01496202730151</v>
+        <v>9.765305113316391</v>
       </c>
       <c r="F16" t="n">
-        <v>68.01496202730151</v>
+        <v>9.765305113316391</v>
       </c>
       <c r="G16" t="n">
-        <v>68.01496202730151</v>
+        <v>41.26273116341062</v>
       </c>
       <c r="H16" t="n">
-        <v>102.3770184321947</v>
+        <v>41.26273116341062</v>
       </c>
       <c r="I16" t="n">
-        <v>102.3770184321947</v>
+        <v>76.63218174420558</v>
       </c>
       <c r="J16" t="n">
-        <v>182.0013091710344</v>
+        <v>76.63218174420558</v>
       </c>
       <c r="K16" t="n">
-        <v>261.7758709617098</v>
+        <v>76.63218174420558</v>
       </c>
       <c r="L16" t="n">
-        <v>261.7758709617098</v>
+        <v>197.4778325214959</v>
       </c>
       <c r="M16" t="n">
-        <v>261.7758709617098</v>
+        <v>213.6750194255081</v>
       </c>
       <c r="N16" t="n">
-        <v>261.7758709617098</v>
+        <v>213.6750194255081</v>
       </c>
       <c r="O16" t="n">
-        <v>261.7758709617098</v>
+        <v>213.6750194255081</v>
       </c>
       <c r="P16" t="n">
-        <v>261.7758709617098</v>
+        <v>334.5206702027985</v>
       </c>
       <c r="Q16" t="n">
-        <v>334.5206702027988</v>
+        <v>334.5206702027985</v>
       </c>
       <c r="R16" t="n">
-        <v>331.6743686787212</v>
+        <v>331.674368678721</v>
       </c>
       <c r="S16" t="n">
-        <v>296.4360817153737</v>
+        <v>296.4360817153735</v>
       </c>
       <c r="T16" t="n">
-        <v>272.9632810256159</v>
+        <v>272.9632810256157</v>
       </c>
       <c r="U16" t="n">
-        <v>183.9306955172372</v>
+        <v>183.9306955172371</v>
       </c>
       <c r="V16" t="n">
-        <v>138.8854059360541</v>
+        <v>138.885405936054</v>
       </c>
       <c r="W16" t="n">
-        <v>48.18184170347161</v>
+        <v>48.18184170347156</v>
       </c>
       <c r="X16" t="n">
-        <v>26.56034987603334</v>
+        <v>26.56034987603331</v>
       </c>
       <c r="Y16" t="n">
         <v>9.765305113316391</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>316.0098501303157</v>
+        <v>316.0098501303165</v>
       </c>
       <c r="C17" t="n">
-        <v>286.3879170272584</v>
+        <v>286.3879170272591</v>
       </c>
       <c r="D17" t="n">
-        <v>269.324910933243</v>
+        <v>269.3249109332437</v>
       </c>
       <c r="E17" t="n">
-        <v>218.214680173158</v>
+        <v>218.2146801731587</v>
       </c>
       <c r="F17" t="n">
-        <v>135.063704384409</v>
+        <v>135.0637043844098</v>
       </c>
       <c r="G17" t="n">
         <v>36.12074154166078</v>
@@ -5516,25 +5516,25 @@
         <v>9.765305113316391</v>
       </c>
       <c r="K17" t="n">
-        <v>9.765305113316391</v>
+        <v>80.39015229093434</v>
       </c>
       <c r="L17" t="n">
-        <v>57.24481942528459</v>
+        <v>127.8696666029025</v>
       </c>
       <c r="M17" t="n">
-        <v>138.9508871048629</v>
+        <v>209.5757342824807</v>
       </c>
       <c r="N17" t="n">
-        <v>215.1366083635661</v>
+        <v>285.7614555411839</v>
       </c>
       <c r="O17" t="n">
-        <v>250.1672658276513</v>
+        <v>320.792113005269</v>
       </c>
       <c r="P17" t="n">
-        <v>250.1672658276513</v>
+        <v>320.792113005269</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.1672658276513</v>
+        <v>320.792113005269</v>
       </c>
       <c r="R17" t="n">
         <v>320.792113005269</v>
@@ -5552,13 +5552,13 @@
         <v>488.2652556658196</v>
       </c>
       <c r="W17" t="n">
-        <v>471.0766897904511</v>
+        <v>471.076689790451</v>
       </c>
       <c r="X17" t="n">
         <v>431.7808002090833</v>
       </c>
       <c r="Y17" t="n">
-        <v>369.7547559572672</v>
+        <v>369.7547559572673</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>235.0628135975219</v>
+        <v>9.765305113316391</v>
       </c>
       <c r="C18" t="n">
-        <v>133.0646120996345</v>
+        <v>9.765305113316391</v>
       </c>
       <c r="D18" t="n">
-        <v>133.0646120996345</v>
+        <v>9.765305113316391</v>
       </c>
       <c r="E18" t="n">
-        <v>133.0646120996345</v>
+        <v>9.765305113316391</v>
       </c>
       <c r="F18" t="n">
-        <v>133.0646120996345</v>
+        <v>9.765305113316391</v>
       </c>
       <c r="G18" t="n">
         <v>9.765305113316391</v>
@@ -5604,7 +5604,7 @@
         <v>248.5023871475764</v>
       </c>
       <c r="N18" t="n">
-        <v>283.3032988003153</v>
+        <v>369.3480379248667</v>
       </c>
       <c r="O18" t="n">
         <v>404.1489495776057</v>
@@ -5613,31 +5613,31 @@
         <v>488.2652556658196</v>
       </c>
       <c r="Q18" t="n">
-        <v>481.6614275701581</v>
+        <v>488.2652556658196</v>
       </c>
       <c r="R18" t="n">
-        <v>358.36212058384</v>
+        <v>379.6632260722706</v>
       </c>
       <c r="S18" t="n">
-        <v>358.36212058384</v>
+        <v>379.6632260722706</v>
       </c>
       <c r="T18" t="n">
-        <v>358.36212058384</v>
+        <v>379.6632260722706</v>
       </c>
       <c r="U18" t="n">
-        <v>358.36212058384</v>
+        <v>256.3639190859525</v>
       </c>
       <c r="V18" t="n">
-        <v>358.36212058384</v>
+        <v>256.3639190859525</v>
       </c>
       <c r="W18" t="n">
-        <v>235.0628135975219</v>
+        <v>133.0646120996345</v>
       </c>
       <c r="X18" t="n">
-        <v>235.0628135975219</v>
+        <v>133.0646120996345</v>
       </c>
       <c r="Y18" t="n">
-        <v>235.0628135975219</v>
+        <v>9.765305113316391</v>
       </c>
     </row>
     <row r="19">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>316.0098501303165</v>
+        <v>316.0098501303166</v>
       </c>
       <c r="C20" t="n">
-        <v>286.387917027259</v>
+        <v>286.3879170272593</v>
       </c>
       <c r="D20" t="n">
-        <v>269.3249109332435</v>
+        <v>269.3249109332439</v>
       </c>
       <c r="E20" t="n">
-        <v>218.2146801731583</v>
+        <v>218.214680173159</v>
       </c>
       <c r="F20" t="n">
-        <v>135.0637043844094</v>
+        <v>135.0637043844099</v>
       </c>
       <c r="G20" t="n">
-        <v>36.12074154166078</v>
+        <v>36.12074154166184</v>
       </c>
       <c r="H20" t="n">
         <v>9.765305113316391</v>
@@ -5753,34 +5753,34 @@
         <v>9.765305113316391</v>
       </c>
       <c r="K20" t="n">
-        <v>9.765305113316391</v>
+        <v>130.6109558906067</v>
       </c>
       <c r="L20" t="n">
-        <v>57.24481942528459</v>
+        <v>178.0904702025749</v>
       </c>
       <c r="M20" t="n">
-        <v>138.9508871048629</v>
+        <v>259.7965378821531</v>
       </c>
       <c r="N20" t="n">
-        <v>215.1366083635661</v>
+        <v>335.9822591408563</v>
       </c>
       <c r="O20" t="n">
-        <v>250.1672658276513</v>
+        <v>371.0129166049414</v>
       </c>
       <c r="P20" t="n">
-        <v>250.1672658276513</v>
+        <v>371.0129166049414</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.1672658276513</v>
+        <v>371.0129166049414</v>
       </c>
       <c r="R20" t="n">
-        <v>320.792113005269</v>
+        <v>488.2652556658196</v>
       </c>
       <c r="S20" t="n">
-        <v>320.792113005269</v>
+        <v>488.2652556658196</v>
       </c>
       <c r="T20" t="n">
-        <v>418.2429213642596</v>
+        <v>488.2652556658196</v>
       </c>
       <c r="U20" t="n">
         <v>488.2652556658196</v>
@@ -5789,13 +5789,13 @@
         <v>488.2652556658196</v>
       </c>
       <c r="W20" t="n">
-        <v>471.076689790451</v>
+        <v>471.0766897904509</v>
       </c>
       <c r="X20" t="n">
         <v>431.7808002090833</v>
       </c>
       <c r="Y20" t="n">
-        <v>369.7547559572673</v>
+        <v>369.7547559572674</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>358.36212058384</v>
+        <v>133.0646120996345</v>
       </c>
       <c r="C21" t="n">
-        <v>358.36212058384</v>
+        <v>9.765305113316391</v>
       </c>
       <c r="D21" t="n">
-        <v>358.36212058384</v>
+        <v>9.765305113316391</v>
       </c>
       <c r="E21" t="n">
-        <v>309.1211831874664</v>
+        <v>9.765305113316391</v>
       </c>
       <c r="F21" t="n">
-        <v>185.8218762011483</v>
+        <v>9.765305113316391</v>
       </c>
       <c r="G21" t="n">
-        <v>62.52256921483027</v>
+        <v>9.765305113316391</v>
       </c>
       <c r="H21" t="n">
-        <v>62.52256921483027</v>
+        <v>9.765305113316391</v>
       </c>
       <c r="I21" t="n">
-        <v>62.52256921483027</v>
+        <v>9.765305113316391</v>
       </c>
       <c r="J21" t="n">
         <v>9.765305113316391</v>
       </c>
       <c r="K21" t="n">
-        <v>48.14399808280754</v>
+        <v>48.14399808280753</v>
       </c>
       <c r="L21" t="n">
-        <v>166.0354293397772</v>
+        <v>48.14399808280753</v>
       </c>
       <c r="M21" t="n">
-        <v>166.0354293397772</v>
+        <v>168.9896488600979</v>
       </c>
       <c r="N21" t="n">
-        <v>283.3032988003153</v>
+        <v>283.3032988003154</v>
       </c>
       <c r="O21" t="n">
         <v>404.1489495776057</v>
@@ -5850,31 +5850,31 @@
         <v>488.2652556658196</v>
       </c>
       <c r="Q21" t="n">
-        <v>481.6614275701581</v>
+        <v>488.2652556658196</v>
       </c>
       <c r="R21" t="n">
-        <v>481.6614275701581</v>
+        <v>488.2652556658196</v>
       </c>
       <c r="S21" t="n">
-        <v>481.6614275701581</v>
+        <v>488.2652556658196</v>
       </c>
       <c r="T21" t="n">
-        <v>481.6614275701581</v>
+        <v>364.9659486795015</v>
       </c>
       <c r="U21" t="n">
-        <v>481.6614275701581</v>
+        <v>241.6666416931834</v>
       </c>
       <c r="V21" t="n">
-        <v>481.6614275701581</v>
+        <v>241.6666416931834</v>
       </c>
       <c r="W21" t="n">
-        <v>358.36212058384</v>
+        <v>133.0646120996345</v>
       </c>
       <c r="X21" t="n">
-        <v>358.36212058384</v>
+        <v>133.0646120996345</v>
       </c>
       <c r="Y21" t="n">
-        <v>358.36212058384</v>
+        <v>133.0646120996345</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>316.0098501303165</v>
+        <v>316.0098501303158</v>
       </c>
       <c r="C23" t="n">
-        <v>286.3879170272592</v>
+        <v>286.3879170272583</v>
       </c>
       <c r="D23" t="n">
-        <v>269.3249109332438</v>
+        <v>269.3249109332428</v>
       </c>
       <c r="E23" t="n">
-        <v>218.2146801731588</v>
+        <v>218.2146801731578</v>
       </c>
       <c r="F23" t="n">
-        <v>135.0637043844097</v>
+        <v>135.0637043844088</v>
       </c>
       <c r="G23" t="n">
-        <v>36.12074154166078</v>
+        <v>36.12074154166076</v>
       </c>
       <c r="H23" t="n">
-        <v>9.765305113316391</v>
+        <v>9.765305113316378</v>
       </c>
       <c r="I23" t="n">
-        <v>9.765305113316391</v>
+        <v>9.765305113316378</v>
       </c>
       <c r="J23" t="n">
-        <v>9.765305113316391</v>
+        <v>9.765305113316378</v>
       </c>
       <c r="K23" t="n">
-        <v>9.765305113316391</v>
+        <v>9.765305113316378</v>
       </c>
       <c r="L23" t="n">
-        <v>57.24481942528459</v>
+        <v>57.24481942528453</v>
       </c>
       <c r="M23" t="n">
-        <v>138.9508871048629</v>
+        <v>178.0904702025747</v>
       </c>
       <c r="N23" t="n">
-        <v>215.1366083635661</v>
+        <v>263.2450760037849</v>
       </c>
       <c r="O23" t="n">
-        <v>250.1672658276513</v>
+        <v>298.2757334678701</v>
       </c>
       <c r="P23" t="n">
-        <v>250.1672658276513</v>
+        <v>298.2757334678701</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.1672658276513</v>
+        <v>298.2757334678701</v>
       </c>
       <c r="R23" t="n">
-        <v>250.1672658276513</v>
+        <v>298.2757334678701</v>
       </c>
       <c r="S23" t="n">
-        <v>342.7059796666096</v>
+        <v>390.8144473068284</v>
       </c>
       <c r="T23" t="n">
-        <v>440.1567880256001</v>
+        <v>488.2652556658189</v>
       </c>
       <c r="U23" t="n">
-        <v>488.2652556658196</v>
+        <v>488.2652556658189</v>
       </c>
       <c r="V23" t="n">
-        <v>488.2652556658196</v>
+        <v>488.2652556658189</v>
       </c>
       <c r="W23" t="n">
-        <v>471.076689790451</v>
+        <v>471.0766897904503</v>
       </c>
       <c r="X23" t="n">
-        <v>431.7808002090833</v>
+        <v>431.7808002090827</v>
       </c>
       <c r="Y23" t="n">
-        <v>369.7547559572673</v>
+        <v>369.7547559572666</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>185.8218762011483</v>
+        <v>9.765305113316378</v>
       </c>
       <c r="C24" t="n">
-        <v>185.8218762011483</v>
+        <v>9.765305113316378</v>
       </c>
       <c r="D24" t="n">
-        <v>185.8218762011483</v>
+        <v>9.765305113316378</v>
       </c>
       <c r="E24" t="n">
-        <v>185.8218762011483</v>
+        <v>9.765305113316378</v>
       </c>
       <c r="F24" t="n">
-        <v>185.8218762011483</v>
+        <v>9.765305113316378</v>
       </c>
       <c r="G24" t="n">
-        <v>62.52256921483027</v>
+        <v>9.765305113316378</v>
       </c>
       <c r="H24" t="n">
-        <v>62.52256921483027</v>
+        <v>9.765305113316378</v>
       </c>
       <c r="I24" t="n">
-        <v>62.52256921483027</v>
+        <v>9.765305113316378</v>
       </c>
       <c r="J24" t="n">
-        <v>9.765305113316391</v>
+        <v>9.765305113316378</v>
       </c>
       <c r="K24" t="n">
-        <v>48.14399808280754</v>
+        <v>48.14399808280751</v>
       </c>
       <c r="L24" t="n">
-        <v>166.0354293397772</v>
+        <v>162.4576480230247</v>
       </c>
       <c r="M24" t="n">
-        <v>283.3032988003153</v>
+        <v>283.3032988003148</v>
       </c>
       <c r="N24" t="n">
-        <v>283.3032988003153</v>
+        <v>404.148949577605</v>
       </c>
       <c r="O24" t="n">
-        <v>404.1489495776057</v>
+        <v>404.148949577605</v>
       </c>
       <c r="P24" t="n">
-        <v>488.2652556658196</v>
+        <v>488.2652556658189</v>
       </c>
       <c r="Q24" t="n">
-        <v>488.2652556658196</v>
+        <v>481.6614275701574</v>
       </c>
       <c r="R24" t="n">
-        <v>364.9659486795015</v>
+        <v>481.6614275701574</v>
       </c>
       <c r="S24" t="n">
-        <v>241.6666416931834</v>
+        <v>358.3621205838395</v>
       </c>
       <c r="T24" t="n">
-        <v>241.6666416931834</v>
+        <v>358.3621205838395</v>
       </c>
       <c r="U24" t="n">
-        <v>241.6666416931834</v>
+        <v>358.3621205838395</v>
       </c>
       <c r="V24" t="n">
-        <v>185.8218762011483</v>
+        <v>256.3639190859521</v>
       </c>
       <c r="W24" t="n">
-        <v>185.8218762011483</v>
+        <v>133.0646120996343</v>
       </c>
       <c r="X24" t="n">
-        <v>185.8218762011483</v>
+        <v>9.765305113316378</v>
       </c>
       <c r="Y24" t="n">
-        <v>185.8218762011483</v>
+        <v>9.765305113316378</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.765305113316391</v>
+        <v>9.765305113316378</v>
       </c>
       <c r="C25" t="n">
-        <v>9.765305113316391</v>
+        <v>9.765305113316378</v>
       </c>
       <c r="D25" t="n">
-        <v>9.765305113316391</v>
+        <v>9.765305113316378</v>
       </c>
       <c r="E25" t="n">
-        <v>9.765305113316391</v>
+        <v>9.765305113316378</v>
       </c>
       <c r="F25" t="n">
-        <v>9.765305113316391</v>
+        <v>9.765305113316378</v>
       </c>
       <c r="G25" t="n">
-        <v>9.765305113316391</v>
+        <v>9.765305113316378</v>
       </c>
       <c r="H25" t="n">
-        <v>9.765305113316391</v>
+        <v>9.765305113316378</v>
       </c>
       <c r="I25" t="n">
-        <v>9.765305113316391</v>
+        <v>9.765305113316378</v>
       </c>
       <c r="J25" t="n">
-        <v>9.765305113316391</v>
+        <v>9.765305113316378</v>
       </c>
       <c r="K25" t="n">
-        <v>9.765305113316391</v>
+        <v>9.765305113316378</v>
       </c>
       <c r="L25" t="n">
-        <v>9.765305113316391</v>
+        <v>9.765305113316378</v>
       </c>
       <c r="M25" t="n">
-        <v>9.765305113316391</v>
+        <v>9.765305113316378</v>
       </c>
       <c r="N25" t="n">
-        <v>9.765305113316391</v>
+        <v>9.765305113316378</v>
       </c>
       <c r="O25" t="n">
-        <v>9.765305113316391</v>
+        <v>9.765305113316378</v>
       </c>
       <c r="P25" t="n">
-        <v>9.765305113316391</v>
+        <v>9.765305113316378</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.765305113316391</v>
+        <v>9.765305113316378</v>
       </c>
       <c r="R25" t="n">
-        <v>9.765305113316391</v>
+        <v>9.765305113316378</v>
       </c>
       <c r="S25" t="n">
-        <v>9.765305113316391</v>
+        <v>9.765305113316378</v>
       </c>
       <c r="T25" t="n">
-        <v>9.765305113316391</v>
+        <v>9.765305113316378</v>
       </c>
       <c r="U25" t="n">
-        <v>9.765305113316391</v>
+        <v>9.765305113316378</v>
       </c>
       <c r="V25" t="n">
-        <v>9.765305113316391</v>
+        <v>9.765305113316378</v>
       </c>
       <c r="W25" t="n">
-        <v>9.765305113316391</v>
+        <v>9.765305113316378</v>
       </c>
       <c r="X25" t="n">
-        <v>9.765305113316391</v>
+        <v>9.765305113316378</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.765305113316391</v>
+        <v>9.765305113316378</v>
       </c>
     </row>
     <row r="26">
@@ -6203,22 +6203,22 @@
         <v>1022.542134732279</v>
       </c>
       <c r="C26" t="n">
-        <v>884.1809067251729</v>
+        <v>884.1809067251731</v>
       </c>
       <c r="D26" t="n">
-        <v>758.3786057271091</v>
+        <v>758.3786057271095</v>
       </c>
       <c r="E26" t="n">
-        <v>598.5290800629756</v>
+        <v>598.5290800629762</v>
       </c>
       <c r="F26" t="n">
-        <v>406.6388093701783</v>
+        <v>406.6388093701788</v>
       </c>
       <c r="G26" t="n">
-        <v>198.956551623382</v>
+        <v>198.9565516233825</v>
       </c>
       <c r="H26" t="n">
-        <v>63.86182029098927</v>
+        <v>63.86182029098929</v>
       </c>
       <c r="I26" t="n">
         <v>35.98841498215707</v>
@@ -6227,13 +6227,13 @@
         <v>171.4782521997884</v>
       </c>
       <c r="K26" t="n">
-        <v>376.5254767351425</v>
+        <v>376.5254767351424</v>
       </c>
       <c r="L26" t="n">
-        <v>635.1005938847131</v>
+        <v>635.1005938847132</v>
       </c>
       <c r="M26" t="n">
-        <v>927.9022644018939</v>
+        <v>927.9022644018941</v>
       </c>
       <c r="N26" t="n">
         <v>1215.1835884982</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>489.3578112708394</v>
+        <v>35.98841498215707</v>
       </c>
       <c r="C27" t="n">
-        <v>299.9455370038031</v>
+        <v>35.98841498215707</v>
       </c>
       <c r="D27" t="n">
-        <v>299.9455370038031</v>
+        <v>35.98841498215707</v>
       </c>
       <c r="E27" t="n">
-        <v>238.9901298019582</v>
+        <v>35.98841498215707</v>
       </c>
       <c r="F27" t="n">
-        <v>238.9901298019582</v>
+        <v>35.98841498215707</v>
       </c>
       <c r="G27" t="n">
-        <v>88.74567908367095</v>
+        <v>35.98841498215707</v>
       </c>
       <c r="H27" t="n">
-        <v>88.74567908367095</v>
+        <v>35.98841498215707</v>
       </c>
       <c r="I27" t="n">
-        <v>88.74567908367095</v>
+        <v>35.98841498215707</v>
       </c>
       <c r="J27" t="n">
         <v>35.98841498215707</v>
       </c>
       <c r="K27" t="n">
-        <v>74.36710795164822</v>
+        <v>74.36710795164819</v>
       </c>
       <c r="L27" t="n">
-        <v>192.2585392086179</v>
+        <v>192.2585392086178</v>
       </c>
       <c r="M27" t="n">
-        <v>374.5869431233791</v>
+        <v>374.586943123379</v>
       </c>
       <c r="N27" t="n">
         <v>580.1609269215453</v>
       </c>
       <c r="O27" t="n">
-        <v>712.4738775988551</v>
+        <v>712.473877598855</v>
       </c>
       <c r="P27" t="n">
-        <v>796.5901836870689</v>
+        <v>796.5901836870688</v>
       </c>
       <c r="Q27" t="n">
-        <v>789.9863555914075</v>
+        <v>789.9863555914073</v>
       </c>
       <c r="R27" t="n">
-        <v>789.9863555914075</v>
+        <v>654.0686984875327</v>
       </c>
       <c r="S27" t="n">
-        <v>789.9863555914075</v>
+        <v>654.0686984875327</v>
       </c>
       <c r="T27" t="n">
-        <v>788.2362857671569</v>
+        <v>652.3186286632822</v>
       </c>
       <c r="U27" t="n">
-        <v>763.9938444496267</v>
+        <v>562.8519925151085</v>
       </c>
       <c r="V27" t="n">
-        <v>736.2958249938105</v>
+        <v>535.1539730592922</v>
       </c>
       <c r="W27" t="n">
-        <v>682.2789543646513</v>
+        <v>265.7554037895835</v>
       </c>
       <c r="X27" t="n">
-        <v>678.1526586218972</v>
+        <v>46.24740940627983</v>
       </c>
       <c r="Y27" t="n">
-        <v>667.8936641977745</v>
+        <v>35.98841498215707</v>
       </c>
     </row>
     <row r="28">
@@ -6361,43 +6361,43 @@
         <v>35.98841498215707</v>
       </c>
       <c r="C28" t="n">
-        <v>35.98841498215707</v>
+        <v>82.29140865750708</v>
       </c>
       <c r="D28" t="n">
-        <v>35.98841498215707</v>
+        <v>82.29140865750708</v>
       </c>
       <c r="E28" t="n">
-        <v>35.98841498215707</v>
+        <v>82.29140865750708</v>
       </c>
       <c r="F28" t="n">
-        <v>109.5464044234975</v>
+        <v>82.29140865750708</v>
       </c>
       <c r="G28" t="n">
-        <v>109.5464044234975</v>
+        <v>114.539997275481</v>
       </c>
       <c r="H28" t="n">
-        <v>109.5464044234975</v>
+        <v>114.539997275481</v>
       </c>
       <c r="I28" t="n">
-        <v>109.5464044234975</v>
+        <v>114.539997275481</v>
       </c>
       <c r="J28" t="n">
-        <v>201.7572612858521</v>
+        <v>114.539997275481</v>
       </c>
       <c r="K28" t="n">
-        <v>201.7572612858521</v>
+        <v>114.539997275481</v>
       </c>
       <c r="L28" t="n">
-        <v>268.0026077541698</v>
+        <v>114.539997275481</v>
       </c>
       <c r="M28" t="n">
-        <v>268.0026077541698</v>
+        <v>114.539997275481</v>
       </c>
       <c r="N28" t="n">
-        <v>268.0026077541698</v>
+        <v>114.539997275481</v>
       </c>
       <c r="O28" t="n">
-        <v>268.0026077541698</v>
+        <v>114.539997275481</v>
       </c>
       <c r="P28" t="n">
         <v>268.0026077541698</v>
@@ -6440,37 +6440,37 @@
         <v>1022.542134732278</v>
       </c>
       <c r="C29" t="n">
-        <v>884.1809067251717</v>
+        <v>884.1809067251726</v>
       </c>
       <c r="D29" t="n">
-        <v>758.3786057271077</v>
+        <v>758.3786057271087</v>
       </c>
       <c r="E29" t="n">
-        <v>598.5290800629742</v>
+        <v>598.5290800629754</v>
       </c>
       <c r="F29" t="n">
-        <v>406.6388093701768</v>
+        <v>406.638809370178</v>
       </c>
       <c r="G29" t="n">
-        <v>198.9565516233804</v>
+        <v>198.9565516233818</v>
       </c>
       <c r="H29" t="n">
-        <v>63.86182029098937</v>
+        <v>63.86182029098904</v>
       </c>
       <c r="I29" t="n">
         <v>35.98841498215707</v>
       </c>
       <c r="J29" t="n">
-        <v>171.4782521997883</v>
+        <v>171.4782521997884</v>
       </c>
       <c r="K29" t="n">
-        <v>376.5254767351423</v>
+        <v>376.525476735143</v>
       </c>
       <c r="L29" t="n">
-        <v>635.1005938847131</v>
+        <v>635.1005938847138</v>
       </c>
       <c r="M29" t="n">
-        <v>927.9022644018939</v>
+        <v>927.9022644018945</v>
       </c>
       <c r="N29" t="n">
         <v>1215.1835884982</v>
@@ -6488,25 +6488,25 @@
         <v>1799.420749107853</v>
       </c>
       <c r="S29" t="n">
-        <v>1785.099078771663</v>
+        <v>1785.099078771664</v>
       </c>
       <c r="T29" t="n">
-        <v>1775.789238371227</v>
+        <v>1775.789238371228</v>
       </c>
       <c r="U29" t="n">
-        <v>1738.494014788023</v>
+        <v>1738.494014788025</v>
       </c>
       <c r="V29" t="n">
-        <v>1629.754719883975</v>
+        <v>1629.754719883976</v>
       </c>
       <c r="W29" t="n">
-        <v>1503.826859104558</v>
+        <v>1503.826859104559</v>
       </c>
       <c r="X29" t="n">
-        <v>1355.791674619141</v>
+        <v>1355.791674619143</v>
       </c>
       <c r="Y29" t="n">
-        <v>1185.026335463277</v>
+        <v>1185.026335463278</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>647.2040190235799</v>
+        <v>35.98841498215707</v>
       </c>
       <c r="C30" t="n">
-        <v>647.2040190235799</v>
+        <v>35.98841498215707</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2040190235799</v>
+        <v>35.98841498215707</v>
       </c>
       <c r="E30" t="n">
-        <v>473.6408151449944</v>
+        <v>35.98841498215707</v>
       </c>
       <c r="F30" t="n">
-        <v>313.2130988622385</v>
+        <v>35.98841498215707</v>
       </c>
       <c r="G30" t="n">
-        <v>162.9686481439512</v>
+        <v>35.98841498215707</v>
       </c>
       <c r="H30" t="n">
         <v>35.98841498215707</v>
@@ -6543,49 +6543,49 @@
         <v>35.98841498215707</v>
       </c>
       <c r="K30" t="n">
-        <v>74.36710795164822</v>
+        <v>74.36710795164819</v>
       </c>
       <c r="L30" t="n">
-        <v>192.2585392086179</v>
+        <v>192.2585392086178</v>
       </c>
       <c r="M30" t="n">
-        <v>374.5869431233791</v>
+        <v>374.586943123379</v>
       </c>
       <c r="N30" t="n">
         <v>580.1609269215453</v>
       </c>
       <c r="O30" t="n">
-        <v>712.4738775988551</v>
+        <v>712.473877598855</v>
       </c>
       <c r="P30" t="n">
-        <v>796.5901836870689</v>
+        <v>796.5901836870688</v>
       </c>
       <c r="Q30" t="n">
-        <v>789.9863555914075</v>
+        <v>796.5901836870688</v>
       </c>
       <c r="R30" t="n">
-        <v>789.9863555914075</v>
+        <v>660.6725265831942</v>
       </c>
       <c r="S30" t="n">
-        <v>789.9863555914075</v>
+        <v>467.1952238411084</v>
       </c>
       <c r="T30" t="n">
-        <v>788.2362857671568</v>
+        <v>371.712735192089</v>
       </c>
       <c r="U30" t="n">
-        <v>763.9938444496265</v>
+        <v>132.0885952340092</v>
       </c>
       <c r="V30" t="n">
-        <v>736.2958249938101</v>
+        <v>104.3905757781929</v>
       </c>
       <c r="W30" t="n">
-        <v>682.278954364651</v>
+        <v>50.37370514903383</v>
       </c>
       <c r="X30" t="n">
-        <v>678.1526586218969</v>
+        <v>46.2474094062798</v>
       </c>
       <c r="Y30" t="n">
-        <v>647.2040190235799</v>
+        <v>35.98841498215707</v>
       </c>
     </row>
     <row r="31">
@@ -6601,67 +6601,67 @@
         <v>35.98841498215707</v>
       </c>
       <c r="D31" t="n">
-        <v>35.98841498215707</v>
+        <v>81.53365830730201</v>
       </c>
       <c r="E31" t="n">
-        <v>35.98841498215707</v>
+        <v>81.53365830730201</v>
       </c>
       <c r="F31" t="n">
-        <v>35.98841498215707</v>
+        <v>81.53365830730201</v>
       </c>
       <c r="G31" t="n">
-        <v>35.98841498215707</v>
+        <v>81.53365830730201</v>
       </c>
       <c r="H31" t="n">
-        <v>35.98841498215707</v>
+        <v>81.53365830730201</v>
       </c>
       <c r="I31" t="n">
-        <v>35.98841498215707</v>
+        <v>81.53365830730201</v>
       </c>
       <c r="J31" t="n">
-        <v>35.98841498215707</v>
+        <v>81.53365830730201</v>
       </c>
       <c r="K31" t="n">
-        <v>35.98841498215707</v>
+        <v>81.53365830730201</v>
       </c>
       <c r="L31" t="n">
-        <v>35.98841498215707</v>
+        <v>81.53365830730201</v>
       </c>
       <c r="M31" t="n">
-        <v>35.98841498215707</v>
+        <v>268.0026077541696</v>
       </c>
       <c r="N31" t="n">
-        <v>35.98841498215707</v>
+        <v>268.0026077541696</v>
       </c>
       <c r="O31" t="n">
-        <v>35.98841498215707</v>
+        <v>268.0026077541696</v>
       </c>
       <c r="P31" t="n">
-        <v>182.6712423895667</v>
+        <v>268.0026077541696</v>
       </c>
       <c r="Q31" t="n">
-        <v>268.0026077541704</v>
+        <v>268.0026077541696</v>
       </c>
       <c r="R31" t="n">
-        <v>268.0026077541704</v>
+        <v>268.0026077541696</v>
       </c>
       <c r="S31" t="n">
-        <v>245.6064451898788</v>
+        <v>245.6064451898781</v>
       </c>
       <c r="T31" t="n">
-        <v>234.9757688991769</v>
+        <v>234.9757688991763</v>
       </c>
       <c r="U31" t="n">
-        <v>158.7853077898542</v>
+        <v>158.7853077898538</v>
       </c>
       <c r="V31" t="n">
-        <v>126.582142607727</v>
+        <v>126.5821426077267</v>
       </c>
       <c r="W31" t="n">
-        <v>48.72070277420045</v>
+        <v>48.72070277420022</v>
       </c>
       <c r="X31" t="n">
-        <v>39.9413353458181</v>
+        <v>39.94133534581798</v>
       </c>
       <c r="Y31" t="n">
         <v>35.98841498215707</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1022.542134732279</v>
+        <v>1022.542134732278</v>
       </c>
       <c r="C32" t="n">
-        <v>884.1809067251728</v>
+        <v>884.1809067251723</v>
       </c>
       <c r="D32" t="n">
-        <v>758.3786057271089</v>
+        <v>758.3786057271085</v>
       </c>
       <c r="E32" t="n">
-        <v>598.5290800629756</v>
+        <v>598.5290800629751</v>
       </c>
       <c r="F32" t="n">
-        <v>406.6388093701783</v>
+        <v>406.6388093701778</v>
       </c>
       <c r="G32" t="n">
-        <v>198.956551623382</v>
+        <v>198.9565516233815</v>
       </c>
       <c r="H32" t="n">
-        <v>63.86182029098921</v>
+        <v>63.86182029098926</v>
       </c>
       <c r="I32" t="n">
         <v>35.98841498215707</v>
@@ -6707,7 +6707,7 @@
         <v>635.1005938847134</v>
       </c>
       <c r="M32" t="n">
-        <v>927.9022644018944</v>
+        <v>927.9022644018945</v>
       </c>
       <c r="N32" t="n">
         <v>1215.1835884982</v>
@@ -6725,13 +6725,13 @@
         <v>1799.420749107853</v>
       </c>
       <c r="S32" t="n">
-        <v>1785.099078771663</v>
+        <v>1785.099078771664</v>
       </c>
       <c r="T32" t="n">
-        <v>1775.789238371227</v>
+        <v>1775.789238371228</v>
       </c>
       <c r="U32" t="n">
-        <v>1738.494014788024</v>
+        <v>1738.494014788023</v>
       </c>
       <c r="V32" t="n">
         <v>1629.754719883975</v>
@@ -6743,7 +6743,7 @@
         <v>1355.791674619142</v>
       </c>
       <c r="Y32" t="n">
-        <v>1185.026335463278</v>
+        <v>1185.026335463277</v>
       </c>
     </row>
     <row r="33">
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>225.4006892491934</v>
+        <v>35.98841498215707</v>
       </c>
       <c r="C33" t="n">
         <v>35.98841498215707</v>
@@ -6798,31 +6798,31 @@
         <v>796.5901836870689</v>
       </c>
       <c r="Q33" t="n">
-        <v>796.5901836870689</v>
+        <v>789.9863555914075</v>
       </c>
       <c r="R33" t="n">
-        <v>796.5901836870689</v>
+        <v>654.0686984875329</v>
       </c>
       <c r="S33" t="n">
-        <v>796.5901836870689</v>
+        <v>460.591395745447</v>
       </c>
       <c r="T33" t="n">
-        <v>794.8401138628184</v>
+        <v>458.8413259211965</v>
       </c>
       <c r="U33" t="n">
-        <v>752.2642667821447</v>
+        <v>219.2171859631167</v>
       </c>
       <c r="V33" t="n">
-        <v>509.1845486857788</v>
+        <v>191.5191665073004</v>
       </c>
       <c r="W33" t="n">
-        <v>239.7859794160701</v>
+        <v>137.5022958781413</v>
       </c>
       <c r="X33" t="n">
-        <v>235.6596836733161</v>
+        <v>46.2474094062798</v>
       </c>
       <c r="Y33" t="n">
-        <v>225.4006892491934</v>
+        <v>35.98841498215707</v>
       </c>
     </row>
     <row r="34">
@@ -6859,10 +6859,10 @@
         <v>35.98841498215707</v>
       </c>
       <c r="K34" t="n">
-        <v>72.93195527338415</v>
+        <v>35.98841498215707</v>
       </c>
       <c r="L34" t="n">
-        <v>72.93195527338415</v>
+        <v>35.98841498215707</v>
       </c>
       <c r="M34" t="n">
         <v>72.93195527338415</v>
@@ -6932,31 +6932,31 @@
         <v>26.22310986884068</v>
       </c>
       <c r="I35" t="n">
-        <v>33.77920476901718</v>
+        <v>26.22310986884068</v>
       </c>
       <c r="J35" t="n">
-        <v>204.1438614300114</v>
+        <v>196.5877665298349</v>
       </c>
       <c r="K35" t="n">
-        <v>204.1438614300114</v>
+        <v>289.4193760046838</v>
       </c>
       <c r="L35" t="n">
-        <v>497.5937980229452</v>
+        <v>336.8988903166521</v>
       </c>
       <c r="M35" t="n">
-        <v>579.2998657025234</v>
+        <v>661.4098749435555</v>
       </c>
       <c r="N35" t="n">
-        <v>655.4855869612267</v>
+        <v>983.5660184832242</v>
       </c>
       <c r="O35" t="n">
-        <v>936.4866667062774</v>
+        <v>1264.567098228275</v>
       </c>
       <c r="P35" t="n">
-        <v>1053.552444938474</v>
+        <v>1264.567098228275</v>
       </c>
       <c r="Q35" t="n">
-        <v>1211.227411867854</v>
+        <v>1264.567098228275</v>
       </c>
       <c r="R35" t="n">
         <v>1264.567098228275</v>
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>710.4064205361867</v>
+        <v>26.22310986884068</v>
       </c>
       <c r="C36" t="n">
-        <v>520.9941462691504</v>
+        <v>26.22310986884068</v>
       </c>
       <c r="D36" t="n">
-        <v>360.2140300301821</v>
+        <v>26.22310986884068</v>
       </c>
       <c r="E36" t="n">
-        <v>186.6508261515966</v>
+        <v>26.22310986884068</v>
       </c>
       <c r="F36" t="n">
         <v>26.22310986884068</v>
@@ -7041,25 +7041,25 @@
         <v>786.8248785737526</v>
       </c>
       <c r="S36" t="n">
-        <v>728.840371623092</v>
+        <v>593.3475758316667</v>
       </c>
       <c r="T36" t="n">
-        <v>728.840371623092</v>
+        <v>593.3475758316667</v>
       </c>
       <c r="U36" t="n">
-        <v>728.840371623092</v>
+        <v>593.3475758316667</v>
       </c>
       <c r="V36" t="n">
-        <v>728.840371623092</v>
+        <v>515.129673521853</v>
       </c>
       <c r="W36" t="n">
-        <v>710.4064205361867</v>
+        <v>245.7311042521443</v>
       </c>
       <c r="X36" t="n">
-        <v>710.4064205361867</v>
+        <v>26.22310986884068</v>
       </c>
       <c r="Y36" t="n">
-        <v>710.4064205361867</v>
+        <v>26.22310986884068</v>
       </c>
     </row>
     <row r="37">
@@ -7078,34 +7078,34 @@
         <v>26.22310986884068</v>
       </c>
       <c r="E37" t="n">
-        <v>109.1091717271822</v>
+        <v>26.22310986884068</v>
       </c>
       <c r="F37" t="n">
-        <v>109.1091717271822</v>
+        <v>26.22310986884068</v>
       </c>
       <c r="G37" t="n">
-        <v>109.1091717271822</v>
+        <v>26.22310986884068</v>
       </c>
       <c r="H37" t="n">
-        <v>109.1091717271822</v>
+        <v>26.22310986884068</v>
       </c>
       <c r="I37" t="n">
-        <v>109.1091717271822</v>
+        <v>26.22310986884068</v>
       </c>
       <c r="J37" t="n">
-        <v>109.1091717271822</v>
+        <v>26.22310986884068</v>
       </c>
       <c r="K37" t="n">
-        <v>109.1091717271822</v>
+        <v>26.22310986884068</v>
       </c>
       <c r="L37" t="n">
-        <v>109.1091717271822</v>
+        <v>26.22310986884068</v>
       </c>
       <c r="M37" t="n">
-        <v>109.1091717271822</v>
+        <v>26.22310986884068</v>
       </c>
       <c r="N37" t="n">
-        <v>109.1091717271822</v>
+        <v>26.22310986884068</v>
       </c>
       <c r="O37" t="n">
         <v>109.1091717271822</v>
@@ -7126,10 +7126,10 @@
         <v>109.1091717271822</v>
       </c>
       <c r="U37" t="n">
-        <v>68.50163016011338</v>
+        <v>68.50163016011339</v>
       </c>
       <c r="V37" t="n">
-        <v>68.50163016011338</v>
+        <v>68.50163016011339</v>
       </c>
       <c r="W37" t="n">
         <v>26.22310986884068</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>771.4059070566078</v>
+        <v>771.4059070566075</v>
       </c>
       <c r="C38" t="n">
-        <v>668.6275985917559</v>
+        <v>668.6275985917555</v>
       </c>
       <c r="D38" t="n">
-        <v>578.4082171359458</v>
+        <v>578.4082171359455</v>
       </c>
       <c r="E38" t="n">
-        <v>454.1416110140663</v>
+        <v>454.1416110140658</v>
       </c>
       <c r="F38" t="n">
-        <v>297.8342598635227</v>
+        <v>297.8342598635222</v>
       </c>
       <c r="G38" t="n">
         <v>125.7349216589797</v>
@@ -7175,28 +7175,28 @@
         <v>204.1438614300114</v>
       </c>
       <c r="K38" t="n">
-        <v>247.163901243335</v>
+        <v>204.1438614300114</v>
       </c>
       <c r="L38" t="n">
-        <v>540.6138378362688</v>
+        <v>497.5937980229452</v>
       </c>
       <c r="M38" t="n">
-        <v>622.319905515847</v>
+        <v>822.1047826498486</v>
       </c>
       <c r="N38" t="n">
-        <v>698.5056267745503</v>
+        <v>1144.260926189517</v>
       </c>
       <c r="O38" t="n">
-        <v>979.506706519601</v>
+        <v>1179.291583653603</v>
       </c>
       <c r="P38" t="n">
-        <v>1211.227411867854</v>
+        <v>1285.405248575138</v>
       </c>
       <c r="Q38" t="n">
-        <v>1211.227411867854</v>
+        <v>1285.405248575138</v>
       </c>
       <c r="R38" t="n">
-        <v>1264.567098228275</v>
+        <v>1285.405248575138</v>
       </c>
       <c r="S38" t="n">
         <v>1285.405248575138</v>
@@ -7217,7 +7217,7 @@
         <v>1033.489607858964</v>
       </c>
       <c r="Y38" t="n">
-        <v>898.3071882453532</v>
+        <v>898.3071882453529</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>520.9941462691504</v>
+        <v>26.22310986884068</v>
       </c>
       <c r="C39" t="n">
-        <v>520.9941462691504</v>
+        <v>26.22310986884068</v>
       </c>
       <c r="D39" t="n">
-        <v>360.2140300301821</v>
+        <v>26.22310986884068</v>
       </c>
       <c r="E39" t="n">
-        <v>186.6508261515966</v>
+        <v>26.22310986884068</v>
       </c>
       <c r="F39" t="n">
         <v>26.22310986884068</v>
@@ -7278,25 +7278,25 @@
         <v>786.8248785737526</v>
       </c>
       <c r="S39" t="n">
-        <v>593.3475758316667</v>
+        <v>786.8248785737526</v>
       </c>
       <c r="T39" t="n">
-        <v>593.3475758316667</v>
+        <v>569.6931101089524</v>
       </c>
       <c r="U39" t="n">
-        <v>593.3475758316667</v>
+        <v>569.6931101089524</v>
       </c>
       <c r="V39" t="n">
-        <v>593.3475758316667</v>
+        <v>569.6931101089524</v>
       </c>
       <c r="W39" t="n">
-        <v>520.9941462691504</v>
+        <v>551.2591590220471</v>
       </c>
       <c r="X39" t="n">
-        <v>520.9941462691504</v>
+        <v>430.3996558604481</v>
       </c>
       <c r="Y39" t="n">
-        <v>520.9941462691504</v>
+        <v>204.7589627957758</v>
       </c>
     </row>
     <row r="40">
@@ -7345,10 +7345,10 @@
         <v>26.22310986884068</v>
       </c>
       <c r="O40" t="n">
-        <v>109.1091717271822</v>
+        <v>26.22310986884068</v>
       </c>
       <c r="P40" t="n">
-        <v>109.1091717271822</v>
+        <v>26.22310986884068</v>
       </c>
       <c r="Q40" t="n">
         <v>109.1091717271822</v>
@@ -7363,10 +7363,10 @@
         <v>109.1091717271822</v>
       </c>
       <c r="U40" t="n">
-        <v>68.50163016011338</v>
+        <v>68.50163016011339</v>
       </c>
       <c r="V40" t="n">
-        <v>68.50163016011338</v>
+        <v>68.50163016011339</v>
       </c>
       <c r="W40" t="n">
         <v>26.22310986884068</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>725.148821656078</v>
+        <v>725.1488216560781</v>
       </c>
       <c r="C41" t="n">
-        <v>614.6609989578044</v>
+        <v>614.6609989578045</v>
       </c>
       <c r="D41" t="n">
-        <v>609.246274069632</v>
+        <v>516.7321032685729</v>
       </c>
       <c r="E41" t="n">
-        <v>477.2701537143308</v>
+        <v>384.7559829132717</v>
       </c>
       <c r="F41" t="n">
-        <v>313.2532883303656</v>
+        <v>313.2532883303653</v>
       </c>
       <c r="G41" t="n">
         <v>133.4444358924013</v>
@@ -7412,25 +7412,25 @@
         <v>26.22310986884068</v>
       </c>
       <c r="K41" t="n">
-        <v>188.165190075434</v>
+        <v>26.22310986884068</v>
       </c>
       <c r="L41" t="n">
-        <v>235.6447043874022</v>
+        <v>312.1169515615979</v>
       </c>
       <c r="M41" t="n">
-        <v>317.3507720669805</v>
+        <v>393.8230192411762</v>
       </c>
       <c r="N41" t="n">
-        <v>631.9508207064728</v>
+        <v>708.4230678806686</v>
       </c>
       <c r="O41" t="n">
-        <v>905.3958055513471</v>
+        <v>981.8680527255428</v>
       </c>
       <c r="P41" t="n">
-        <v>1129.560415999424</v>
+        <v>1206.03266317362</v>
       </c>
       <c r="Q41" t="n">
-        <v>1279.679288028628</v>
+        <v>1233.895696568384</v>
       </c>
       <c r="R41" t="n">
         <v>1279.679288028628</v>
@@ -7442,7 +7442,7 @@
         <v>1311.155493442034</v>
       </c>
       <c r="U41" t="n">
-        <v>1301.733675167662</v>
+        <v>1301.733675167663</v>
       </c>
       <c r="V41" t="n">
         <v>1220.867785572446</v>
@@ -7454,7 +7454,7 @@
         <v>1002.651550925277</v>
       </c>
       <c r="Y41" t="n">
-        <v>859.759617078245</v>
+        <v>859.7596170782451</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>252.5435778489401</v>
+        <v>164.552269588385</v>
       </c>
       <c r="C42" t="n">
-        <v>252.5435778489401</v>
+        <v>164.552269588385</v>
       </c>
       <c r="D42" t="n">
-        <v>252.5435778489401</v>
+        <v>164.552269588385</v>
       </c>
       <c r="E42" t="n">
-        <v>78.98037397035456</v>
+        <v>164.552269588385</v>
       </c>
       <c r="F42" t="n">
-        <v>78.98037397035456</v>
+        <v>26.22310986884068</v>
       </c>
       <c r="G42" t="n">
-        <v>78.98037397035456</v>
+        <v>26.22310986884068</v>
       </c>
       <c r="H42" t="n">
-        <v>78.98037397035456</v>
+        <v>26.22310986884068</v>
       </c>
       <c r="I42" t="n">
-        <v>78.98037397035456</v>
+        <v>26.22310986884068</v>
       </c>
       <c r="J42" t="n">
         <v>26.22310986884068</v>
@@ -7518,22 +7518,22 @@
         <v>650.907221469878</v>
       </c>
       <c r="T42" t="n">
-        <v>650.907221469878</v>
+        <v>433.7754530050778</v>
       </c>
       <c r="U42" t="n">
-        <v>650.907221469878</v>
+        <v>433.7754530050778</v>
       </c>
       <c r="V42" t="n">
-        <v>650.907221469878</v>
+        <v>190.6957349087119</v>
       </c>
       <c r="W42" t="n">
-        <v>624.7637561495511</v>
+        <v>164.552269588385</v>
       </c>
       <c r="X42" t="n">
-        <v>624.7637561495511</v>
+        <v>164.552269588385</v>
       </c>
       <c r="Y42" t="n">
-        <v>431.0794307758752</v>
+        <v>164.552269588385</v>
       </c>
     </row>
     <row r="43">
@@ -7576,34 +7576,34 @@
         <v>26.22310986884068</v>
       </c>
       <c r="M43" t="n">
-        <v>128.8579600673203</v>
+        <v>26.22310986884068</v>
       </c>
       <c r="N43" t="n">
-        <v>128.8579600673203</v>
+        <v>128.8579600673202</v>
       </c>
       <c r="O43" t="n">
-        <v>128.8579600673203</v>
+        <v>128.8579600673202</v>
       </c>
       <c r="P43" t="n">
-        <v>128.8579600673203</v>
+        <v>128.8579600673202</v>
       </c>
       <c r="Q43" t="n">
-        <v>128.8579600673203</v>
+        <v>128.8579600673202</v>
       </c>
       <c r="R43" t="n">
-        <v>128.8579600673203</v>
+        <v>128.8579600673202</v>
       </c>
       <c r="S43" t="n">
-        <v>128.8579600673203</v>
+        <v>128.8579600673202</v>
       </c>
       <c r="T43" t="n">
-        <v>128.8579600673203</v>
+        <v>128.8579600673202</v>
       </c>
       <c r="U43" t="n">
-        <v>80.5409042668299</v>
+        <v>80.54090426682978</v>
       </c>
       <c r="V43" t="n">
-        <v>76.21114439353499</v>
+        <v>76.21114439353494</v>
       </c>
       <c r="W43" t="n">
         <v>26.22310986884068</v>
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>817.662992457137</v>
+        <v>725.148821656078</v>
       </c>
       <c r="C44" t="n">
-        <v>707.1751697588634</v>
+        <v>614.6609989578043</v>
       </c>
       <c r="D44" t="n">
-        <v>609.2462740696317</v>
+        <v>516.7321032685727</v>
       </c>
       <c r="E44" t="n">
-        <v>477.2701537143305</v>
+        <v>384.7559829132715</v>
       </c>
       <c r="F44" t="n">
-        <v>313.2532883303653</v>
+        <v>220.7391175293064</v>
       </c>
       <c r="G44" t="n">
-        <v>133.4444358924013</v>
+        <v>40.93026509134256</v>
       </c>
       <c r="H44" t="n">
         <v>26.22310986884068</v>
@@ -7646,22 +7646,22 @@
         <v>26.22310986884068</v>
       </c>
       <c r="J44" t="n">
-        <v>189.0316716296585</v>
+        <v>26.22310986884068</v>
       </c>
       <c r="K44" t="n">
-        <v>189.0316716296585</v>
+        <v>258.5890589473813</v>
       </c>
       <c r="L44" t="n">
-        <v>474.9255133224158</v>
+        <v>306.0685732593495</v>
       </c>
       <c r="M44" t="n">
-        <v>795.0459083827832</v>
+        <v>387.7746409389279</v>
       </c>
       <c r="N44" t="n">
-        <v>871.2316296414864</v>
+        <v>604.3613792129479</v>
       </c>
       <c r="O44" t="n">
-        <v>906.2622871055717</v>
+        <v>877.8063640578223</v>
       </c>
       <c r="P44" t="n">
         <v>1101.970974505899</v>
@@ -7679,7 +7679,7 @@
         <v>1311.155493442034</v>
       </c>
       <c r="U44" t="n">
-        <v>1301.733675167662</v>
+        <v>1301.733675167663</v>
       </c>
       <c r="V44" t="n">
         <v>1220.867785572446</v>
@@ -7691,7 +7691,7 @@
         <v>1002.651550925277</v>
       </c>
       <c r="Y44" t="n">
-        <v>859.7596170782455</v>
+        <v>859.759617078245</v>
       </c>
     </row>
     <row r="45">
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>389.1985880144625</v>
+        <v>187.0032261078089</v>
       </c>
       <c r="C45" t="n">
-        <v>199.7863137474262</v>
+        <v>187.0032261078089</v>
       </c>
       <c r="D45" t="n">
-        <v>199.7863137474262</v>
+        <v>26.22310986884068</v>
       </c>
       <c r="E45" t="n">
         <v>26.22310986884068</v>
@@ -7755,22 +7755,22 @@
         <v>786.8248785737526</v>
       </c>
       <c r="T45" t="n">
-        <v>786.8248785737526</v>
+        <v>569.6931101089524</v>
       </c>
       <c r="U45" t="n">
-        <v>547.2007386156728</v>
+        <v>569.6931101089524</v>
       </c>
       <c r="V45" t="n">
-        <v>547.2007386156728</v>
+        <v>569.6931101089524</v>
       </c>
       <c r="W45" t="n">
-        <v>389.1985880144625</v>
+        <v>300.2945408392437</v>
       </c>
       <c r="X45" t="n">
-        <v>389.1985880144625</v>
+        <v>300.2945408392437</v>
       </c>
       <c r="Y45" t="n">
-        <v>389.1985880144625</v>
+        <v>187.0032261078089</v>
       </c>
     </row>
     <row r="46">
@@ -7810,19 +7810,19 @@
         <v>26.22310986884068</v>
       </c>
       <c r="L46" t="n">
-        <v>26.22310986884068</v>
+        <v>128.8579600673202</v>
       </c>
       <c r="M46" t="n">
-        <v>26.22310986884068</v>
+        <v>128.8579600673202</v>
       </c>
       <c r="N46" t="n">
-        <v>26.22310986884068</v>
+        <v>128.8579600673202</v>
       </c>
       <c r="O46" t="n">
-        <v>26.22310986884068</v>
+        <v>128.8579600673202</v>
       </c>
       <c r="P46" t="n">
-        <v>26.22310986884068</v>
+        <v>128.8579600673202</v>
       </c>
       <c r="Q46" t="n">
         <v>128.8579600673202</v>
@@ -8772,16 +8772,16 @@
         <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>121.2222899617227</v>
+        <v>236.6906232346697</v>
       </c>
       <c r="M12" t="n">
-        <v>239.6730902620497</v>
+        <v>117.6067763455948</v>
       </c>
       <c r="N12" t="n">
-        <v>218.4317031625533</v>
+        <v>225.0296838060612</v>
       </c>
       <c r="O12" t="n">
-        <v>243.63965167918</v>
+        <v>243.6396516791799</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
@@ -9006,16 +9006,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>171.373473584151</v>
+        <v>167.7595530621791</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
-        <v>117.6067763455947</v>
+        <v>239.6730902620496</v>
       </c>
       <c r="N15" t="n">
-        <v>221.4157632840892</v>
+        <v>102.9633698896063</v>
       </c>
       <c r="O15" t="n">
         <v>243.6396516791799</v>
@@ -9249,13 +9249,13 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>239.6730902620496</v>
+        <v>239.6730902620497</v>
       </c>
       <c r="N18" t="n">
-        <v>138.1158059024738</v>
+        <v>225.0296838060611</v>
       </c>
       <c r="O18" t="n">
-        <v>243.6396516791799</v>
+        <v>156.7257737755927</v>
       </c>
       <c r="P18" t="n">
         <v>206.3638740786793</v>
@@ -9483,13 +9483,13 @@
         <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>240.3045437566416</v>
+        <v>121.2222899617227</v>
       </c>
       <c r="M21" t="n">
-        <v>117.6067763455947</v>
+        <v>239.6730902620497</v>
       </c>
       <c r="N21" t="n">
-        <v>221.4157632840892</v>
+        <v>218.4317031625532</v>
       </c>
       <c r="O21" t="n">
         <v>243.6396516791799</v>
@@ -9720,16 +9720,16 @@
         <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>240.3045437566416</v>
+        <v>236.6906232346693</v>
       </c>
       <c r="M24" t="n">
-        <v>236.0591697400777</v>
+        <v>239.6730902620495</v>
       </c>
       <c r="N24" t="n">
-        <v>102.9633698896062</v>
+        <v>225.029683806061</v>
       </c>
       <c r="O24" t="n">
-        <v>243.6396516791799</v>
+        <v>121.5733377627251</v>
       </c>
       <c r="P24" t="n">
         <v>206.3638740786793</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>173.5730618787548</v>
+        <v>173.5730618787547</v>
       </c>
       <c r="C11" t="n">
-        <v>27.6250049656453</v>
+        <v>149.6913188821001</v>
       </c>
       <c r="D11" t="n">
-        <v>137.2579811431487</v>
+        <v>137.2579811431486</v>
       </c>
       <c r="E11" t="n">
-        <v>48.89841964610264</v>
+        <v>170.9647335625575</v>
       </c>
       <c r="F11" t="n">
-        <v>202.6850711409349</v>
+        <v>202.6850711409348</v>
       </c>
       <c r="G11" t="n">
-        <v>199.9341053769804</v>
+        <v>96.25282440793886</v>
       </c>
       <c r="H11" t="n">
-        <v>24.39117325767943</v>
+        <v>86.87674357257634</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>40.30837441080931</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>26.89215678789326</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>21.93044515149704</v>
       </c>
       <c r="U11" t="n">
-        <v>49.6359745024371</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>120.3656051100735</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>137.3822853266883</v>
+        <v>15.31597141023335</v>
       </c>
       <c r="X11" t="n">
-        <v>159.2685357956276</v>
+        <v>159.2685357956275</v>
       </c>
       <c r="Y11" t="n">
-        <v>181.7713889193713</v>
+        <v>181.7713889193712</v>
       </c>
     </row>
     <row r="12">
@@ -23495,7 +23495,7 @@
         <v>173.5730618787547</v>
       </c>
       <c r="C14" t="n">
-        <v>27.62500496564529</v>
+        <v>27.62500496564527</v>
       </c>
       <c r="D14" t="n">
         <v>137.2579811431486</v>
@@ -23507,13 +23507,13 @@
         <v>202.6850711409348</v>
       </c>
       <c r="G14" t="n">
-        <v>199.9341053769803</v>
+        <v>110.8031290267804</v>
       </c>
       <c r="H14" t="n">
-        <v>24.39117325767943</v>
+        <v>146.4574871741343</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>40.30837441080931</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>26.89215678789321</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>21.93044515149705</v>
       </c>
       <c r="U14" t="n">
-        <v>49.63597450243702</v>
+        <v>49.63597450243699</v>
       </c>
       <c r="V14" t="n">
-        <v>120.3656051100734</v>
+        <v>120.3656051100733</v>
       </c>
       <c r="W14" t="n">
-        <v>15.31597141023336</v>
+        <v>15.31597141023335</v>
       </c>
       <c r="X14" t="n">
-        <v>159.2685357956275</v>
+        <v>37.20222187917258</v>
       </c>
       <c r="Y14" t="n">
         <v>181.7713889193712</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-1.012179735281246e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -25631,13 +25631,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>91.58902909304871</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>91.58902909304823</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>91.58902909304788</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>91.58902909304811</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>658259.1574566587</v>
+        <v>658259.1574566588</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>658259.1574566587</v>
+        <v>658259.1574566588</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>881931.9951764598</v>
+        <v>881931.9951764602</v>
       </c>
       <c r="C2" t="n">
-        <v>881931.9951764597</v>
+        <v>881931.99517646</v>
       </c>
       <c r="D2" t="n">
-        <v>881931.9951764599</v>
+        <v>881931.9951764601</v>
       </c>
       <c r="E2" t="n">
-        <v>767280.5757362865</v>
+        <v>767280.575736286</v>
       </c>
       <c r="F2" t="n">
-        <v>767280.5757362862</v>
+        <v>767280.5757362864</v>
       </c>
       <c r="G2" t="n">
+        <v>883718.5488585365</v>
+      </c>
+      <c r="H2" t="n">
+        <v>883718.5488585366</v>
+      </c>
+      <c r="I2" t="n">
+        <v>883718.5488585366</v>
+      </c>
+      <c r="J2" t="n">
+        <v>883718.5488585359</v>
+      </c>
+      <c r="K2" t="n">
+        <v>883718.5488585355</v>
+      </c>
+      <c r="L2" t="n">
+        <v>883718.5488585359</v>
+      </c>
+      <c r="M2" t="n">
         <v>883718.5488585363</v>
-      </c>
-      <c r="H2" t="n">
-        <v>883718.5488585365</v>
-      </c>
-      <c r="I2" t="n">
-        <v>883718.5488585365</v>
-      </c>
-      <c r="J2" t="n">
-        <v>883718.5488585356</v>
-      </c>
-      <c r="K2" t="n">
-        <v>883718.5488585358</v>
-      </c>
-      <c r="L2" t="n">
-        <v>883718.5488585352</v>
-      </c>
-      <c r="M2" t="n">
-        <v>883718.5488585359</v>
       </c>
       <c r="N2" t="n">
         <v>883718.5488585363</v>
       </c>
       <c r="O2" t="n">
+        <v>876428.0621427294</v>
+      </c>
+      <c r="P2" t="n">
         <v>876428.0621427296</v>
-      </c>
-      <c r="P2" t="n">
-        <v>876428.0621427294</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>279109.5345561454</v>
       </c>
       <c r="F3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>96292.4840880587</v>
+        <v>96292.48408805867</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>160053.8132167934</v>
+        <v>160053.8132167935</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>96292.48408805879</v>
+        <v>96292.48408805867</v>
       </c>
       <c r="M3" t="n">
         <v>28181.67227746499</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>68183.88596238659</v>
+        <v>68183.88596238672</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>461965.1541894153</v>
       </c>
       <c r="E4" t="n">
-        <v>359870.4063091727</v>
+        <v>359870.4063091729</v>
       </c>
       <c r="F4" t="n">
         <v>359870.4063091729</v>
@@ -26442,7 +26442,7 @@
         <v>425419.001846147</v>
       </c>
       <c r="K4" t="n">
-        <v>425419.0018461469</v>
+        <v>425419.001846147</v>
       </c>
       <c r="L4" t="n">
         <v>425419.001846147</v>
@@ -26454,10 +26454,10 @@
         <v>424877.8160379415</v>
       </c>
       <c r="O4" t="n">
-        <v>420722.8022593289</v>
+        <v>420722.802259329</v>
       </c>
       <c r="P4" t="n">
-        <v>420722.8022593289</v>
+        <v>420722.802259329</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26510.5281599302</v>
+        <v>26510.52815993021</v>
       </c>
       <c r="F5" t="n">
-        <v>26510.5281599302</v>
+        <v>26510.52815993021</v>
       </c>
       <c r="G5" t="n">
         <v>36629.54421592897</v>
@@ -26488,28 +26488,28 @@
         <v>36629.54421592897</v>
       </c>
       <c r="I5" t="n">
-        <v>36629.54421592897</v>
+        <v>36629.54421592895</v>
       </c>
       <c r="J5" t="n">
         <v>47508.91997079232</v>
       </c>
       <c r="K5" t="n">
-        <v>47508.91997079231</v>
+        <v>47508.91997079232</v>
       </c>
       <c r="L5" t="n">
         <v>47508.91997079232</v>
       </c>
       <c r="M5" t="n">
-        <v>43048.79434303961</v>
+        <v>43048.79434303962</v>
       </c>
       <c r="N5" t="n">
-        <v>43048.79434303961</v>
+        <v>43048.79434303962</v>
       </c>
       <c r="O5" t="n">
-        <v>42407.14450247098</v>
+        <v>42407.144502471</v>
       </c>
       <c r="P5" t="n">
-        <v>42407.14450247099</v>
+        <v>42407.144502471</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>386339.2409870445</v>
+        <v>386334.7746028398</v>
       </c>
       <c r="C6" t="n">
-        <v>386339.2409870444</v>
+        <v>386334.7746028395</v>
       </c>
       <c r="D6" t="n">
-        <v>386339.2409870446</v>
+        <v>386334.7746028397</v>
       </c>
       <c r="E6" t="n">
-        <v>101790.1067110381</v>
+        <v>101499.0117782319</v>
       </c>
       <c r="F6" t="n">
-        <v>380899.6412671831</v>
+        <v>380608.5463343777</v>
       </c>
       <c r="G6" t="n">
-        <v>324568.384125685</v>
+        <v>324568.3841256852</v>
       </c>
       <c r="H6" t="n">
-        <v>420860.8682137439</v>
+        <v>420860.868213744</v>
       </c>
       <c r="I6" t="n">
-        <v>420860.868213744</v>
+        <v>420860.8682137441</v>
       </c>
       <c r="J6" t="n">
-        <v>250736.8138248028</v>
+        <v>250736.813824803</v>
       </c>
       <c r="K6" t="n">
-        <v>410790.6270415966</v>
+        <v>410790.6270415962</v>
       </c>
       <c r="L6" t="n">
-        <v>314498.1429535371</v>
+        <v>314498.1429535379</v>
       </c>
       <c r="M6" t="n">
-        <v>387610.2662000898</v>
+        <v>387610.2662000902</v>
       </c>
       <c r="N6" t="n">
         <v>415791.9384775552</v>
       </c>
       <c r="O6" t="n">
-        <v>345114.2294185432</v>
+        <v>345096.0032017532</v>
       </c>
       <c r="P6" t="n">
-        <v>413298.1153809295</v>
+        <v>413279.8891641402</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="F2" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="G2" t="n">
         <v>320.879783609152</v>
@@ -26710,7 +26710,7 @@
         <v>213.2278816541441</v>
       </c>
       <c r="K2" t="n">
-        <v>213.227881654144</v>
+        <v>213.2278816541441</v>
       </c>
       <c r="L2" t="n">
         <v>213.2278816541441</v>
@@ -26722,7 +26722,7 @@
         <v>248.4549720009753</v>
       </c>
       <c r="O2" t="n">
-        <v>240.8225529098879</v>
+        <v>240.822552909888</v>
       </c>
       <c r="P2" t="n">
         <v>240.822552909888</v>
@@ -26744,25 +26744,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>102.3793486959039</v>
+        <v>102.3793486959038</v>
       </c>
       <c r="F3" t="n">
-        <v>102.3793486959039</v>
+        <v>102.3793486959038</v>
       </c>
       <c r="G3" t="n">
-        <v>102.3793486959039</v>
+        <v>102.3793486959038</v>
       </c>
       <c r="H3" t="n">
-        <v>102.3793486959039</v>
+        <v>102.3793486959038</v>
       </c>
       <c r="I3" t="n">
-        <v>102.3793486959039</v>
+        <v>102.3793486959038</v>
       </c>
       <c r="J3" t="n">
-        <v>102.3793486959039</v>
+        <v>102.3793486959038</v>
       </c>
       <c r="K3" t="n">
-        <v>102.3793486959039</v>
+        <v>102.3793486959038</v>
       </c>
       <c r="L3" t="n">
         <v>102.3793486959039</v>
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.066313916455</v>
+        <v>122.0663139164549</v>
       </c>
       <c r="F4" t="n">
         <v>122.0663139164549</v>
@@ -26808,7 +26808,7 @@
         <v>122.0663139164549</v>
       </c>
       <c r="I4" t="n">
-        <v>122.0663139164549</v>
+        <v>122.0663139164547</v>
       </c>
       <c r="J4" t="n">
         <v>449.8551872769634</v>
@@ -26820,16 +26820,16 @@
         <v>449.8551872769634</v>
       </c>
       <c r="M4" t="n">
-        <v>327.7888733605084</v>
+        <v>327.7888733605085</v>
       </c>
       <c r="N4" t="n">
-        <v>327.7888733605084</v>
+        <v>327.7888733605085</v>
       </c>
       <c r="O4" t="n">
-        <v>327.7888733605084</v>
+        <v>327.7888733605085</v>
       </c>
       <c r="P4" t="n">
-        <v>327.7888733605084</v>
+        <v>327.7888733605085</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="F2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>120.3656051100734</v>
+        <v>120.3656051100733</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.86227654407062</v>
+        <v>92.86227654407074</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>120.3656051100735</v>
+        <v>120.3656051100733</v>
       </c>
       <c r="M2" t="n">
         <v>35.22709034683123</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>85.22985745298323</v>
+        <v>85.2298574529834</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>102.3793486959039</v>
+        <v>102.3793486959038</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.066313916455</v>
+        <v>122.0663139164549</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>327.7888733605085</v>
+        <v>327.7888733605087</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="K2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>120.3656051100734</v>
+        <v>120.3656051100733</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>92.86227654407062</v>
+        <v>92.86227654407074</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>122.066313916455</v>
+        <v>122.0663139164549</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,34 +28087,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="C11" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="D11" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="E11" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="F11" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="G11" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="H11" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="I11" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="J11" t="n">
-        <v>198.4357741386482</v>
+        <v>108.1243549168124</v>
       </c>
       <c r="K11" t="n">
-        <v>6.109473032574243</v>
+        <v>128.1757869490292</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28126,37 +28126,37 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>86.68181142748</v>
       </c>
       <c r="P11" t="n">
-        <v>21.50350972837143</v>
+        <v>14.39365346738612</v>
       </c>
       <c r="Q11" t="n">
-        <v>200.5141784990786</v>
+        <v>89.18732863796478</v>
       </c>
       <c r="R11" t="n">
         <v>194.5765009298437</v>
       </c>
       <c r="S11" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="T11" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="U11" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="V11" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="W11" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="X11" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="Y11" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
     </row>
     <row r="12">
@@ -28178,7 +28178,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>36.75712520347338</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
         <v>148.7420062111044</v>
@@ -28190,7 +28190,7 @@
         <v>107.2739525867467</v>
       </c>
       <c r="J12" t="n">
-        <v>52.22969146049874</v>
+        <v>52.22969146049876</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28217,25 +28217,25 @@
         <v>134.5584805328358</v>
       </c>
       <c r="S12" t="n">
-        <v>151.2057074443176</v>
+        <v>191.5425297146649</v>
       </c>
       <c r="T12" t="n">
-        <v>92.89413686369721</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="U12" t="n">
-        <v>200.5141784990786</v>
+        <v>115.1615846420441</v>
       </c>
       <c r="V12" t="n">
-        <v>200.5141784990786</v>
+        <v>118.5826069989474</v>
       </c>
       <c r="W12" t="n">
-        <v>200.5141784990786</v>
+        <v>144.6382696605567</v>
       </c>
       <c r="X12" t="n">
-        <v>200.5141784990786</v>
+        <v>153.6510748725825</v>
       </c>
       <c r="Y12" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
     </row>
     <row r="13">
@@ -28248,73 +28248,73 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
-        <v>200.5141784990786</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>200.5141784990786</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="F13" t="n">
-        <v>200.5141784990786</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
         <v>168.6985966302966</v>
       </c>
       <c r="H13" t="n">
-        <v>200.5141784990786</v>
+        <v>165.8050306153482</v>
       </c>
       <c r="I13" t="n">
-        <v>200.5141784990786</v>
+        <v>164.7874607406999</v>
       </c>
       <c r="J13" t="n">
-        <v>120.0856019952001</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="K13" t="n">
-        <v>66.77690164993713</v>
+        <v>66.77690164993714</v>
       </c>
       <c r="L13" t="n">
-        <v>31.82796291380948</v>
+        <v>153.8942768302644</v>
       </c>
       <c r="M13" t="n">
-        <v>24.875407465389</v>
+        <v>91.57820207081002</v>
       </c>
       <c r="N13" t="n">
-        <v>49.3312579636147</v>
+        <v>16.18681854223965</v>
       </c>
       <c r="O13" t="n">
-        <v>37.17099163855119</v>
+        <v>37.17099163855121</v>
       </c>
       <c r="P13" t="n">
-        <v>58.21514379688269</v>
+        <v>58.2151437968827</v>
       </c>
       <c r="Q13" t="n">
-        <v>200.5141784990786</v>
+        <v>127.0345833060595</v>
       </c>
       <c r="R13" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="S13" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="T13" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="U13" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="V13" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="W13" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="X13" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="Y13" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
     </row>
     <row r="14">
@@ -28324,34 +28324,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="C14" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="D14" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="E14" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="F14" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="G14" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="H14" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="I14" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="J14" t="n">
-        <v>77.54163891394342</v>
+        <v>198.4357741386482</v>
       </c>
       <c r="K14" t="n">
-        <v>128.1757869490291</v>
+        <v>6.109473032574279</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28360,40 +28360,40 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>31.75489469461908</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>86.68181142748</v>
       </c>
       <c r="P14" t="n">
-        <v>14.39365346738608</v>
+        <v>14.39365346738612</v>
       </c>
       <c r="Q14" t="n">
-        <v>200.5141784990786</v>
+        <v>89.18732863796478</v>
       </c>
       <c r="R14" t="n">
-        <v>200.5141784990786</v>
+        <v>194.5765009298437</v>
       </c>
       <c r="S14" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="T14" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="U14" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="V14" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="W14" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="X14" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="Y14" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
     </row>
     <row r="15">
@@ -28403,10 +28403,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>54.68418048121084</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>121.4928591187681</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28415,10 +28415,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>132.9328891306542</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>26.67569229464953</v>
+        <v>148.7420062111044</v>
       </c>
       <c r="H15" t="n">
         <v>125.7104308301762</v>
@@ -28427,7 +28427,7 @@
         <v>107.2739525867467</v>
       </c>
       <c r="J15" t="n">
-        <v>52.22969146049874</v>
+        <v>52.22969146049876</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>12.49216661638095</v>
+        <v>134.5584805328358</v>
       </c>
       <c r="S15" t="n">
         <v>191.5425297146649</v>
       </c>
       <c r="T15" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="U15" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="V15" t="n">
-        <v>200.5141784990786</v>
+        <v>118.5826069989474</v>
       </c>
       <c r="W15" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="X15" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="Y15" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
     </row>
     <row r="16">
@@ -28491,67 +28491,67 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>200.5141784990786</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.6985966302966</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="H16" t="n">
-        <v>200.5141784990786</v>
+        <v>165.8050306153482</v>
       </c>
       <c r="I16" t="n">
-        <v>164.7874607406999</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="J16" t="n">
-        <v>200.5141784990786</v>
+        <v>120.0856019952001</v>
       </c>
       <c r="K16" t="n">
-        <v>147.3572670950638</v>
+        <v>66.77690164993714</v>
       </c>
       <c r="L16" t="n">
-        <v>31.82796291380948</v>
+        <v>153.8942768302644</v>
       </c>
       <c r="M16" t="n">
-        <v>24.875407465389</v>
+        <v>41.2362023179266</v>
       </c>
       <c r="N16" t="n">
-        <v>16.18681854223963</v>
+        <v>16.18681854223965</v>
       </c>
       <c r="O16" t="n">
-        <v>37.17099163855119</v>
+        <v>37.17099163855121</v>
       </c>
       <c r="P16" t="n">
-        <v>58.21514379688269</v>
+        <v>180.2814577133376</v>
       </c>
       <c r="Q16" t="n">
-        <v>200.5141784990786</v>
+        <v>127.0345833060595</v>
       </c>
       <c r="R16" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="S16" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="T16" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="U16" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="V16" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="W16" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="X16" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
       <c r="Y16" t="n">
-        <v>200.5141784990786</v>
+        <v>200.5141784990787</v>
       </c>
     </row>
     <row r="17">
@@ -28585,10 +28585,10 @@
         <v>240.822552909888</v>
       </c>
       <c r="J17" t="n">
-        <v>76.36946022219327</v>
+        <v>76.3694602221933</v>
       </c>
       <c r="K17" t="n">
-        <v>6.109473032574243</v>
+        <v>77.44770250491564</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,13 +28603,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>14.39365346738608</v>
+        <v>14.39365346738612</v>
       </c>
       <c r="Q17" t="n">
-        <v>89.18732863796475</v>
+        <v>89.18732863796478</v>
       </c>
       <c r="R17" t="n">
-        <v>265.9147304021849</v>
+        <v>194.5765009298437</v>
       </c>
       <c r="S17" t="n">
         <v>227.4063352869719</v>
@@ -28643,7 +28643,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>86.53993204145733</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
@@ -28655,7 +28655,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>26.67569229464953</v>
+        <v>148.7420062111044</v>
       </c>
       <c r="H18" t="n">
         <v>125.7104308301762</v>
@@ -28664,7 +28664,7 @@
         <v>107.2739525867467</v>
       </c>
       <c r="J18" t="n">
-        <v>52.22969146049874</v>
+        <v>52.22969146049876</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,10 +28685,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.537789814704876</v>
       </c>
       <c r="R18" t="n">
-        <v>12.49216661638095</v>
+        <v>27.04247123522239</v>
       </c>
       <c r="S18" t="n">
         <v>191.5425297146649</v>
@@ -28697,7 +28697,7 @@
         <v>214.9604507801522</v>
       </c>
       <c r="U18" t="n">
-        <v>237.227898558499</v>
+        <v>115.1615846420441</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -28709,7 +28709,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>101.3179722175707</v>
       </c>
     </row>
     <row r="19">
@@ -28746,22 +28746,22 @@
         <v>120.0856019952001</v>
       </c>
       <c r="K19" t="n">
-        <v>66.77690164993713</v>
+        <v>66.77690164993714</v>
       </c>
       <c r="L19" t="n">
-        <v>31.82796291380948</v>
+        <v>31.82796291380949</v>
       </c>
       <c r="M19" t="n">
-        <v>24.875407465389</v>
+        <v>24.87540746538902</v>
       </c>
       <c r="N19" t="n">
-        <v>16.18681854223963</v>
+        <v>16.18681854223965</v>
       </c>
       <c r="O19" t="n">
-        <v>37.17099163855119</v>
+        <v>37.17099163855121</v>
       </c>
       <c r="P19" t="n">
-        <v>58.21514379688269</v>
+        <v>58.2151437968827</v>
       </c>
       <c r="Q19" t="n">
         <v>127.0345833060595</v>
@@ -28822,10 +28822,10 @@
         <v>240.822552909888</v>
       </c>
       <c r="J20" t="n">
-        <v>76.36946022219327</v>
+        <v>76.3694602221933</v>
       </c>
       <c r="K20" t="n">
-        <v>6.109473032574243</v>
+        <v>128.1757869490292</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,22 +28840,22 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>14.39365346738608</v>
+        <v>14.39365346738612</v>
       </c>
       <c r="Q20" t="n">
-        <v>89.18732863796475</v>
+        <v>89.18732863796478</v>
       </c>
       <c r="R20" t="n">
-        <v>265.9147304021849</v>
+        <v>313.0132070519429</v>
       </c>
       <c r="S20" t="n">
         <v>227.4063352869719</v>
       </c>
       <c r="T20" t="n">
-        <v>320.879783609152</v>
+        <v>222.4446236505757</v>
       </c>
       <c r="U20" t="n">
-        <v>320.879783609152</v>
+        <v>250.1501530015157</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -28880,19 +28880,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>65.45183760791103</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>123.0790438173898</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>36.75712520347345</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>26.67569229464953</v>
+        <v>148.7420062111044</v>
       </c>
       <c r="H21" t="n">
         <v>125.7104308301762</v>
@@ -28901,7 +28901,7 @@
         <v>107.2739525867467</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>52.22969146049876</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,7 +28922,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.537789814704876</v>
       </c>
       <c r="R21" t="n">
         <v>134.5584805328358</v>
@@ -28931,16 +28931,16 @@
         <v>191.5425297146649</v>
       </c>
       <c r="T21" t="n">
-        <v>214.9604507801522</v>
+        <v>92.89413686369728</v>
       </c>
       <c r="U21" t="n">
-        <v>237.227898558499</v>
+        <v>115.1615846420441</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>144.6382696605567</v>
+        <v>159.1885742793982</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
@@ -28983,22 +28983,22 @@
         <v>120.0856019952001</v>
       </c>
       <c r="K22" t="n">
-        <v>66.77690164993713</v>
+        <v>66.77690164993714</v>
       </c>
       <c r="L22" t="n">
-        <v>31.82796291380948</v>
+        <v>31.82796291380949</v>
       </c>
       <c r="M22" t="n">
-        <v>24.875407465389</v>
+        <v>24.87540746538902</v>
       </c>
       <c r="N22" t="n">
-        <v>16.18681854223963</v>
+        <v>16.18681854223965</v>
       </c>
       <c r="O22" t="n">
-        <v>37.17099163855119</v>
+        <v>37.17099163855121</v>
       </c>
       <c r="P22" t="n">
-        <v>58.21514379688269</v>
+        <v>58.2151437968827</v>
       </c>
       <c r="Q22" t="n">
         <v>127.0345833060595</v>
@@ -29059,28 +29059,28 @@
         <v>240.822552909888</v>
       </c>
       <c r="J23" t="n">
-        <v>76.36946022219327</v>
+        <v>76.3694602221933</v>
       </c>
       <c r="K23" t="n">
-        <v>6.109473032574243</v>
+        <v>6.109473032574279</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>39.53493242193126</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>9.059479335865689</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>14.39365346738608</v>
+        <v>14.39365346738612</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.18732863796475</v>
+        <v>89.18732863796478</v>
       </c>
       <c r="R23" t="n">
         <v>194.5765009298437</v>
@@ -29092,7 +29092,7 @@
         <v>320.879783609152</v>
       </c>
       <c r="U23" t="n">
-        <v>298.7445647593131</v>
+        <v>250.1501530015157</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -29129,7 +29129,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>26.67569229464952</v>
+        <v>148.7420062111044</v>
       </c>
       <c r="H24" t="n">
         <v>125.7104308301762</v>
@@ -29138,7 +29138,7 @@
         <v>107.2739525867467</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>52.22969146049876</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,13 +29159,13 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.537789814704855</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>12.49216661638094</v>
+        <v>134.5584805328358</v>
       </c>
       <c r="S24" t="n">
-        <v>69.47621579821005</v>
+        <v>69.47621579821022</v>
       </c>
       <c r="T24" t="n">
         <v>214.9604507801522</v>
@@ -29174,13 +29174,13 @@
         <v>237.227898558499</v>
       </c>
       <c r="V24" t="n">
-        <v>185.3626030782875</v>
+        <v>139.6707014324938</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>144.6382696605569</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>95.24660052301589</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29220,22 +29220,22 @@
         <v>120.0856019952001</v>
       </c>
       <c r="K25" t="n">
-        <v>66.77690164993713</v>
+        <v>66.77690164993714</v>
       </c>
       <c r="L25" t="n">
-        <v>31.82796291380948</v>
+        <v>31.82796291380949</v>
       </c>
       <c r="M25" t="n">
-        <v>24.875407465389</v>
+        <v>24.87540746538902</v>
       </c>
       <c r="N25" t="n">
-        <v>16.18681854223963</v>
+        <v>16.18681854223965</v>
       </c>
       <c r="O25" t="n">
-        <v>37.17099163855119</v>
+        <v>37.17099163855121</v>
       </c>
       <c r="P25" t="n">
-        <v>58.21514379688269</v>
+        <v>58.2151437968827</v>
       </c>
       <c r="Q25" t="n">
         <v>127.0345833060595</v>
@@ -29314,7 +29314,7 @@
         <v>213.2278816541441</v>
       </c>
       <c r="P26" t="n">
-        <v>213.2278816541441</v>
+        <v>213.2278816541445</v>
       </c>
       <c r="Q26" t="n">
         <v>213.2278816541441</v>
@@ -29351,22 +29351,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>111.4817187099733</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>148.7420062111044</v>
       </c>
       <c r="H27" t="n">
         <v>125.7104308301762</v>
@@ -29375,7 +29375,7 @@
         <v>107.2739525867467</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>52.22969146049876</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>134.5584805328358</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>191.5425297146649</v>
@@ -29408,16 +29408,16 @@
         <v>213.2278816541441</v>
       </c>
       <c r="U27" t="n">
-        <v>213.2278816541441</v>
+        <v>148.655928771807</v>
       </c>
       <c r="V27" t="n">
         <v>213.2278816541441</v>
       </c>
       <c r="W27" t="n">
-        <v>213.2278816541441</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>213.2278816541441</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>213.2278816541441</v>
@@ -29433,7 +29433,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>166.4571809719723</v>
+        <v>213.2278816541441</v>
       </c>
       <c r="D28" t="n">
         <v>145.1826502507107</v>
@@ -29442,10 +29442,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>213.2278816541441</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.6985966302966</v>
+        <v>201.272928567644</v>
       </c>
       <c r="H28" t="n">
         <v>165.8050306153482</v>
@@ -29454,25 +29454,25 @@
         <v>164.7874607406999</v>
       </c>
       <c r="J28" t="n">
+        <v>120.0856019952001</v>
+      </c>
+      <c r="K28" t="n">
+        <v>66.77690164993714</v>
+      </c>
+      <c r="L28" t="n">
+        <v>31.82796291380949</v>
+      </c>
+      <c r="M28" t="n">
+        <v>24.87540746538902</v>
+      </c>
+      <c r="N28" t="n">
+        <v>16.18681854223965</v>
+      </c>
+      <c r="O28" t="n">
+        <v>37.17099163855121</v>
+      </c>
+      <c r="P28" t="n">
         <v>213.2278816541441</v>
-      </c>
-      <c r="K28" t="n">
-        <v>66.77690164993713</v>
-      </c>
-      <c r="L28" t="n">
-        <v>98.74245429594858</v>
-      </c>
-      <c r="M28" t="n">
-        <v>24.875407465389</v>
-      </c>
-      <c r="N28" t="n">
-        <v>16.18681854223963</v>
-      </c>
-      <c r="O28" t="n">
-        <v>37.17099163855119</v>
-      </c>
-      <c r="P28" t="n">
-        <v>58.21514379688269</v>
       </c>
       <c r="Q28" t="n">
         <v>127.0345833060595</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>213.227881654144</v>
+        <v>213.2278816541441</v>
       </c>
       <c r="C29" t="n">
-        <v>213.227881654144</v>
+        <v>213.2278816541441</v>
       </c>
       <c r="D29" t="n">
-        <v>213.227881654144</v>
+        <v>213.2278816541441</v>
       </c>
       <c r="E29" t="n">
-        <v>213.227881654144</v>
+        <v>213.2278816541441</v>
       </c>
       <c r="F29" t="n">
-        <v>213.227881654144</v>
+        <v>213.2278816541441</v>
       </c>
       <c r="G29" t="n">
-        <v>213.227881654144</v>
+        <v>213.2278816541441</v>
       </c>
       <c r="H29" t="n">
-        <v>213.227881654144</v>
+        <v>213.2278816541441</v>
       </c>
       <c r="I29" t="n">
-        <v>213.227881654144</v>
+        <v>213.2278816541441</v>
       </c>
       <c r="J29" t="n">
-        <v>213.227881654144</v>
+        <v>213.2278816541441</v>
       </c>
       <c r="K29" t="n">
-        <v>213.227881654144</v>
+        <v>213.2278816541441</v>
       </c>
       <c r="L29" t="n">
-        <v>213.227881654144</v>
+        <v>213.2278816541441</v>
       </c>
       <c r="M29" t="n">
-        <v>213.227881654144</v>
+        <v>213.2278816541441</v>
       </c>
       <c r="N29" t="n">
-        <v>213.227881654144</v>
+        <v>213.2278816541441</v>
       </c>
       <c r="O29" t="n">
-        <v>213.227881654145</v>
+        <v>213.2278816541441</v>
       </c>
       <c r="P29" t="n">
-        <v>213.227881654144</v>
+        <v>213.2278816541441</v>
       </c>
       <c r="Q29" t="n">
-        <v>213.227881654144</v>
+        <v>213.2278816541441</v>
       </c>
       <c r="R29" t="n">
-        <v>213.227881654144</v>
+        <v>213.2278816541441</v>
       </c>
       <c r="S29" t="n">
-        <v>213.227881654144</v>
+        <v>213.2278816541441</v>
       </c>
       <c r="T29" t="n">
-        <v>213.227881654144</v>
+        <v>213.2278816541441</v>
       </c>
       <c r="U29" t="n">
-        <v>213.227881654144</v>
+        <v>213.2278816541441</v>
       </c>
       <c r="V29" t="n">
-        <v>213.227881654144</v>
+        <v>213.2278816541441</v>
       </c>
       <c r="W29" t="n">
-        <v>213.227881654144</v>
+        <v>213.2278816541441</v>
       </c>
       <c r="X29" t="n">
-        <v>213.227881654144</v>
+        <v>213.2278816541441</v>
       </c>
       <c r="Y29" t="n">
-        <v>213.227881654144</v>
+        <v>213.2278816541441</v>
       </c>
     </row>
     <row r="30">
@@ -29597,22 +29597,22 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>148.7420062111044</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>125.7104308301762</v>
       </c>
       <c r="I30" t="n">
         <v>107.2739525867467</v>
       </c>
       <c r="J30" t="n">
-        <v>52.22969146049874</v>
+        <v>52.22969146049876</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,31 +29633,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.537789814704876</v>
       </c>
       <c r="R30" t="n">
-        <v>134.5584805328358</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>191.5425297146649</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>213.227881654144</v>
+        <v>120.432787017623</v>
       </c>
       <c r="U30" t="n">
-        <v>213.227881654144</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>213.227881654144</v>
+        <v>213.2278816541441</v>
       </c>
       <c r="W30" t="n">
-        <v>213.227881654144</v>
+        <v>213.2278816541441</v>
       </c>
       <c r="X30" t="n">
-        <v>213.227881654144</v>
+        <v>213.2278816541441</v>
       </c>
       <c r="Y30" t="n">
-        <v>192.7451329316918</v>
+        <v>213.2278816541441</v>
       </c>
     </row>
     <row r="31">
@@ -29673,7 +29673,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>145.1826502507107</v>
+        <v>191.1879465387359</v>
       </c>
       <c r="E31" t="n">
         <v>141.676141212225</v>
@@ -29694,49 +29694,49 @@
         <v>120.0856019952001</v>
       </c>
       <c r="K31" t="n">
-        <v>66.77690164993713</v>
+        <v>66.77690164993714</v>
       </c>
       <c r="L31" t="n">
-        <v>31.82796291380948</v>
+        <v>31.82796291380949</v>
       </c>
       <c r="M31" t="n">
-        <v>24.875407465389</v>
+        <v>213.2278816541441</v>
       </c>
       <c r="N31" t="n">
-        <v>16.18681854223963</v>
+        <v>16.18681854223965</v>
       </c>
       <c r="O31" t="n">
-        <v>37.17099163855119</v>
+        <v>37.17099163855121</v>
       </c>
       <c r="P31" t="n">
-        <v>206.3796159255792</v>
+        <v>58.2151437968827</v>
       </c>
       <c r="Q31" t="n">
-        <v>213.227881654144</v>
+        <v>127.0345833060595</v>
       </c>
       <c r="R31" t="n">
         <v>203.3320170079155</v>
       </c>
       <c r="S31" t="n">
-        <v>213.227881654144</v>
+        <v>213.2278816541441</v>
       </c>
       <c r="T31" t="n">
-        <v>213.227881654144</v>
+        <v>213.2278816541441</v>
       </c>
       <c r="U31" t="n">
-        <v>213.227881654144</v>
+        <v>213.2278816541441</v>
       </c>
       <c r="V31" t="n">
-        <v>213.227881654144</v>
+        <v>213.2278816541441</v>
       </c>
       <c r="W31" t="n">
-        <v>213.227881654144</v>
+        <v>213.2278816541441</v>
       </c>
       <c r="X31" t="n">
-        <v>213.227881654144</v>
+        <v>213.2278816541441</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.227881654144</v>
+        <v>213.2278816541441</v>
       </c>
     </row>
     <row r="32">
@@ -29779,7 +29779,7 @@
         <v>213.2278816541441</v>
       </c>
       <c r="M32" t="n">
-        <v>213.2278816541441</v>
+        <v>213.2278816541444</v>
       </c>
       <c r="N32" t="n">
         <v>213.2278816541441</v>
@@ -29828,7 +29828,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
@@ -29870,28 +29870,28 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.537789814704855</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>134.5584805328358</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>191.5425297146649</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>213.2278816541441</v>
       </c>
       <c r="U33" t="n">
-        <v>195.077809948632</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>213.2278816541441</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>213.2278816541441</v>
       </c>
       <c r="X33" t="n">
-        <v>213.2278816541441</v>
+        <v>126.9705768323277</v>
       </c>
       <c r="Y33" t="n">
         <v>213.2278816541441</v>
@@ -29931,13 +29931,13 @@
         <v>120.0856019952001</v>
       </c>
       <c r="K34" t="n">
-        <v>104.093609014813</v>
+        <v>66.77690164993713</v>
       </c>
       <c r="L34" t="n">
         <v>31.82796291380948</v>
       </c>
       <c r="M34" t="n">
-        <v>24.875407465389</v>
+        <v>62.19211483026484</v>
       </c>
       <c r="N34" t="n">
         <v>213.2278816541441</v>
@@ -30004,34 +30004,34 @@
         <v>248.4549720009753</v>
       </c>
       <c r="I35" t="n">
-        <v>248.4549720009753</v>
+        <v>240.822552909888</v>
       </c>
       <c r="J35" t="n">
         <v>248.4549720009753</v>
       </c>
       <c r="K35" t="n">
-        <v>6.109473032574243</v>
+        <v>99.87877553242166</v>
       </c>
       <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>245.257491865985</v>
+      </c>
+      <c r="N35" t="n">
         <v>248.4549720009753</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>248.4549720009753</v>
       </c>
       <c r="P35" t="n">
-        <v>132.6419143079887</v>
+        <v>14.39365346738608</v>
       </c>
       <c r="Q35" t="n">
-        <v>248.4549720009753</v>
+        <v>89.18732863796475</v>
       </c>
       <c r="R35" t="n">
-        <v>248.4549720009753</v>
+        <v>194.5765009298437</v>
       </c>
       <c r="S35" t="n">
         <v>248.4549720009753</v>
@@ -30065,16 +30065,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>148.7420062111044</v>
@@ -30113,7 +30113,7 @@
         <v>134.5584805328358</v>
       </c>
       <c r="S36" t="n">
-        <v>134.1378678335109</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>214.9604507801522</v>
@@ -30122,13 +30122,13 @@
         <v>237.227898558499</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>163.2131976286866</v>
       </c>
       <c r="W36" t="n">
-        <v>248.4549720009753</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30150,7 +30150,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
-        <v>225.3994360186306</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F37" t="n">
         <v>138.9268822184467</v>
@@ -30180,7 +30180,7 @@
         <v>16.18681854223963</v>
       </c>
       <c r="O37" t="n">
-        <v>37.17099163855119</v>
+        <v>120.8942864449568</v>
       </c>
       <c r="P37" t="n">
         <v>58.21514379688269</v>
@@ -30247,31 +30247,31 @@
         <v>248.4549720009753</v>
       </c>
       <c r="K38" t="n">
-        <v>49.56405870259805</v>
+        <v>6.109473032574243</v>
       </c>
       <c r="L38" t="n">
         <v>248.4549720009753</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>245.257491865985</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>248.4549720009753</v>
       </c>
       <c r="O38" t="n">
-        <v>248.4549720009753</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>248.4549720009753</v>
+        <v>121.5791735901494</v>
       </c>
       <c r="Q38" t="n">
         <v>89.18732863796475</v>
       </c>
       <c r="R38" t="n">
-        <v>248.4549720009753</v>
+        <v>194.5765009298437</v>
       </c>
       <c r="S38" t="n">
-        <v>248.4549720009753</v>
+        <v>227.4063352869719</v>
       </c>
       <c r="T38" t="n">
         <v>248.4549720009753</v>
@@ -30299,19 +30299,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>148.7420062111044</v>
@@ -30350,10 +30350,10 @@
         <v>134.5584805328358</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.5425297146649</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9604507801522</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>237.227898558499</v>
@@ -30362,13 +30362,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>195.0746883101204</v>
+        <v>248.4549720009753</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>97.66200630948757</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30417,13 +30417,13 @@
         <v>16.18681854223963</v>
       </c>
       <c r="O40" t="n">
-        <v>120.8942864449568</v>
+        <v>37.17099163855119</v>
       </c>
       <c r="P40" t="n">
         <v>58.21514379688269</v>
       </c>
       <c r="Q40" t="n">
-        <v>127.0345833060595</v>
+        <v>210.7578781124651</v>
       </c>
       <c r="R40" t="n">
         <v>203.3320170079155</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>240.8225529098879</v>
+        <v>240.822552909888</v>
       </c>
       <c r="C41" t="n">
-        <v>240.8225529098879</v>
+        <v>240.822552909888</v>
       </c>
       <c r="D41" t="n">
-        <v>240.8225529098879</v>
+        <v>240.822552909888</v>
       </c>
       <c r="E41" t="n">
-        <v>240.8225529098879</v>
+        <v>240.822552909888</v>
       </c>
       <c r="F41" t="n">
-        <v>240.8225529098879</v>
+        <v>240.822552909888</v>
       </c>
       <c r="G41" t="n">
-        <v>240.8225529098879</v>
+        <v>240.822552909888</v>
       </c>
       <c r="H41" t="n">
-        <v>240.8225529098879</v>
+        <v>240.822552909888</v>
       </c>
       <c r="I41" t="n">
-        <v>240.8225529098879</v>
+        <v>240.822552909888</v>
       </c>
       <c r="J41" t="n">
         <v>76.36946022219327</v>
       </c>
       <c r="K41" t="n">
-        <v>169.687331827113</v>
+        <v>6.109473032574243</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>240.822552909888</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>240.8225529098879</v>
+        <v>240.822552909888</v>
       </c>
       <c r="O41" t="n">
-        <v>240.8225529098879</v>
+        <v>240.822552909888</v>
       </c>
       <c r="P41" t="n">
-        <v>240.8225529098879</v>
+        <v>240.822552909888</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.8225529098879</v>
+        <v>117.3318068144945</v>
       </c>
       <c r="R41" t="n">
-        <v>194.5765009298437</v>
+        <v>240.822552909888</v>
       </c>
       <c r="S41" t="n">
-        <v>240.8225529098879</v>
+        <v>240.822552909888</v>
       </c>
       <c r="T41" t="n">
-        <v>240.8225529098879</v>
+        <v>240.822552909888</v>
       </c>
       <c r="U41" t="n">
-        <v>240.8225529098879</v>
+        <v>240.822552909888</v>
       </c>
       <c r="V41" t="n">
-        <v>240.8225529098879</v>
+        <v>240.822552909888</v>
       </c>
       <c r="W41" t="n">
-        <v>240.8225529098879</v>
+        <v>240.822552909888</v>
       </c>
       <c r="X41" t="n">
-        <v>240.8225529098879</v>
+        <v>240.822552909888</v>
       </c>
       <c r="Y41" t="n">
-        <v>240.8225529098879</v>
+        <v>240.822552909888</v>
       </c>
     </row>
     <row r="42">
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
@@ -30545,10 +30545,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>21.87757099757948</v>
       </c>
       <c r="G42" t="n">
         <v>148.7420062111044</v>
@@ -30560,7 +30560,7 @@
         <v>107.2739525867467</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>52.22969146049874</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30590,22 +30590,22 @@
         <v>191.5425297146649</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9604507801522</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>237.227898558499</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>240.8225529098879</v>
+        <v>240.822552909888</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>31.63680401408649</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30648,10 +30648,10 @@
         <v>31.82796291380948</v>
       </c>
       <c r="M43" t="n">
-        <v>128.5469733224392</v>
+        <v>24.875407465389</v>
       </c>
       <c r="N43" t="n">
-        <v>16.18681854223963</v>
+        <v>119.8583843992896</v>
       </c>
       <c r="O43" t="n">
         <v>37.17099163855119</v>
@@ -30672,13 +30672,13 @@
         <v>223.7522511819389</v>
       </c>
       <c r="U43" t="n">
-        <v>240.8225529098879</v>
+        <v>240.822552909888</v>
       </c>
       <c r="V43" t="n">
-        <v>240.8225529098879</v>
+        <v>240.822552909888</v>
       </c>
       <c r="W43" t="n">
-        <v>240.8225529098879</v>
+        <v>240.822552909888</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30718,25 +30718,25 @@
         <v>240.822552909888</v>
       </c>
       <c r="J44" t="n">
+        <v>76.36946022219325</v>
+      </c>
+      <c r="K44" t="n">
         <v>240.822552909888</v>
       </c>
-      <c r="K44" t="n">
-        <v>6.109473032574229</v>
-      </c>
       <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>141.8192091063806</v>
+      </c>
+      <c r="O44" t="n">
         <v>240.822552909888</v>
       </c>
-      <c r="M44" t="n">
+      <c r="P44" t="n">
         <v>240.822552909888</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>212.0791962959995</v>
       </c>
       <c r="Q44" t="n">
         <v>240.822552909888</v>
@@ -30776,13 +30776,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
@@ -30827,22 +30827,22 @@
         <v>191.5425297146649</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9604507801522</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.227898558499</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>110.2824544818135</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>111.2258845499052</v>
       </c>
     </row>
     <row r="46">
@@ -30882,7 +30882,7 @@
         <v>66.77690164993713</v>
       </c>
       <c r="L46" t="n">
-        <v>31.82796291380946</v>
+        <v>135.4995287708595</v>
       </c>
       <c r="M46" t="n">
         <v>24.875407465389</v>
@@ -30897,7 +30897,7 @@
         <v>58.21514379688269</v>
       </c>
       <c r="Q46" t="n">
-        <v>230.7061491631096</v>
+        <v>127.0345833060595</v>
       </c>
       <c r="R46" t="n">
         <v>203.3320170079155</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4115752711393119</v>
+        <v>0.4115752711393116</v>
       </c>
       <c r="H11" t="n">
-        <v>4.215045245555479</v>
+        <v>4.215045245555475</v>
       </c>
       <c r="I11" t="n">
-        <v>15.86725564059834</v>
+        <v>15.86725564059832</v>
       </c>
       <c r="J11" t="n">
-        <v>34.9319366688602</v>
+        <v>34.93193666886017</v>
       </c>
       <c r="K11" t="n">
-        <v>52.35391789618728</v>
+        <v>52.35391789618725</v>
       </c>
       <c r="L11" t="n">
-        <v>64.94966460031701</v>
+        <v>64.94966460031696</v>
       </c>
       <c r="M11" t="n">
-        <v>72.26901632844074</v>
+        <v>72.2690163284407</v>
       </c>
       <c r="N11" t="n">
-        <v>73.43840456756531</v>
+        <v>73.43840456756527</v>
       </c>
       <c r="O11" t="n">
-        <v>69.34580296517379</v>
+        <v>69.34580296517373</v>
       </c>
       <c r="P11" t="n">
-        <v>59.18503845892202</v>
+        <v>59.18503845892197</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.44549906124539</v>
+        <v>44.44549906124536</v>
       </c>
       <c r="R11" t="n">
-        <v>25.85361512570482</v>
+        <v>25.8536151257048</v>
       </c>
       <c r="S11" t="n">
-        <v>9.378771491087079</v>
+        <v>9.378771491087072</v>
       </c>
       <c r="T11" t="n">
-        <v>1.801670749412339</v>
+        <v>1.801670749412337</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03292602169114494</v>
+        <v>0.03292602169114492</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2202121839874159</v>
+        <v>0.2202121839874158</v>
       </c>
       <c r="H12" t="n">
-        <v>2.12678609272057</v>
+        <v>2.126786092720569</v>
       </c>
       <c r="I12" t="n">
-        <v>7.581866860970242</v>
+        <v>7.581866860970238</v>
       </c>
       <c r="J12" t="n">
-        <v>20.80522217224968</v>
+        <v>20.80522217224967</v>
       </c>
       <c r="K12" t="n">
-        <v>35.55943849940655</v>
+        <v>35.55943849940653</v>
       </c>
       <c r="L12" t="n">
-        <v>47.8140533697238</v>
+        <v>47.81405336972377</v>
       </c>
       <c r="M12" t="n">
-        <v>55.79674503926762</v>
+        <v>55.79674503926758</v>
       </c>
       <c r="N12" t="n">
-        <v>57.27351885206043</v>
+        <v>57.27351885206039</v>
       </c>
       <c r="O12" t="n">
-        <v>52.39408045949716</v>
+        <v>52.39408045949713</v>
       </c>
       <c r="P12" t="n">
-        <v>42.05086871247419</v>
+        <v>42.05086871247416</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.1098921174112</v>
+        <v>28.10989211741118</v>
       </c>
       <c r="R12" t="n">
-        <v>13.6724722654643</v>
+        <v>13.67247226546429</v>
       </c>
       <c r="S12" t="n">
-        <v>4.090344733275026</v>
+        <v>4.090344733275023</v>
       </c>
       <c r="T12" t="n">
-        <v>0.887609636335242</v>
+        <v>0.8876096363352414</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01448764368338263</v>
+        <v>0.01448764368338262</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1846184976483513</v>
+        <v>0.1846184976483511</v>
       </c>
       <c r="H13" t="n">
-        <v>1.641426279091706</v>
+        <v>1.641426279091705</v>
       </c>
       <c r="I13" t="n">
-        <v>5.551981729279511</v>
+        <v>5.551981729279508</v>
       </c>
       <c r="J13" t="n">
-        <v>13.05252778373843</v>
+        <v>13.05252778373842</v>
       </c>
       <c r="K13" t="n">
-        <v>21.44931272678117</v>
+        <v>21.44931272678116</v>
       </c>
       <c r="L13" t="n">
-        <v>27.44773555037397</v>
+        <v>27.44773555037396</v>
       </c>
       <c r="M13" t="n">
-        <v>28.93978868136837</v>
+        <v>28.93978868136835</v>
       </c>
       <c r="N13" t="n">
-        <v>28.25166519013363</v>
+        <v>28.25166519013361</v>
       </c>
       <c r="O13" t="n">
-        <v>26.09498546760515</v>
+        <v>26.09498546760513</v>
       </c>
       <c r="P13" t="n">
-        <v>22.32876811557877</v>
+        <v>22.32876811557875</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.45928165308149</v>
+        <v>15.45928165308148</v>
       </c>
       <c r="R13" t="n">
-        <v>8.301118994261319</v>
+        <v>8.301118994261314</v>
       </c>
       <c r="S13" t="n">
-        <v>3.217396909017175</v>
+        <v>3.217396909017173</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7888244899520461</v>
+        <v>0.7888244899520456</v>
       </c>
       <c r="U13" t="n">
         <v>0.01007009987172826</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4115752711393119</v>
+        <v>0.4115752711393116</v>
       </c>
       <c r="H14" t="n">
-        <v>4.215045245555479</v>
+        <v>4.215045245555475</v>
       </c>
       <c r="I14" t="n">
-        <v>15.86725564059834</v>
+        <v>15.86725564059832</v>
       </c>
       <c r="J14" t="n">
-        <v>34.9319366688602</v>
+        <v>34.93193666886017</v>
       </c>
       <c r="K14" t="n">
-        <v>52.35391789618728</v>
+        <v>52.35391789618725</v>
       </c>
       <c r="L14" t="n">
-        <v>64.94966460031701</v>
+        <v>64.94966460031696</v>
       </c>
       <c r="M14" t="n">
-        <v>72.26901632844074</v>
+        <v>72.2690163284407</v>
       </c>
       <c r="N14" t="n">
-        <v>73.43840456756531</v>
+        <v>73.43840456756527</v>
       </c>
       <c r="O14" t="n">
-        <v>69.34580296517379</v>
+        <v>69.34580296517373</v>
       </c>
       <c r="P14" t="n">
-        <v>59.18503845892202</v>
+        <v>59.18503845892197</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.44549906124539</v>
+        <v>44.44549906124536</v>
       </c>
       <c r="R14" t="n">
-        <v>25.85361512570482</v>
+        <v>25.8536151257048</v>
       </c>
       <c r="S14" t="n">
-        <v>9.378771491087079</v>
+        <v>9.378771491087072</v>
       </c>
       <c r="T14" t="n">
-        <v>1.801670749412339</v>
+        <v>1.801670749412337</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03292602169114494</v>
+        <v>0.03292602169114492</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2202121839874159</v>
+        <v>0.2202121839874158</v>
       </c>
       <c r="H15" t="n">
-        <v>2.12678609272057</v>
+        <v>2.126786092720569</v>
       </c>
       <c r="I15" t="n">
-        <v>7.581866860970242</v>
+        <v>7.581866860970238</v>
       </c>
       <c r="J15" t="n">
-        <v>20.80522217224968</v>
+        <v>20.80522217224967</v>
       </c>
       <c r="K15" t="n">
-        <v>35.55943849940655</v>
+        <v>35.55943849940653</v>
       </c>
       <c r="L15" t="n">
-        <v>47.8140533697238</v>
+        <v>47.81405336972377</v>
       </c>
       <c r="M15" t="n">
-        <v>55.79674503926762</v>
+        <v>55.79674503926758</v>
       </c>
       <c r="N15" t="n">
-        <v>57.27351885206043</v>
+        <v>57.27351885206039</v>
       </c>
       <c r="O15" t="n">
-        <v>52.39408045949716</v>
+        <v>52.39408045949713</v>
       </c>
       <c r="P15" t="n">
-        <v>42.05086871247419</v>
+        <v>42.05086871247416</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.1098921174112</v>
+        <v>28.10989211741118</v>
       </c>
       <c r="R15" t="n">
-        <v>13.6724722654643</v>
+        <v>13.67247226546429</v>
       </c>
       <c r="S15" t="n">
-        <v>4.090344733275026</v>
+        <v>4.090344733275023</v>
       </c>
       <c r="T15" t="n">
-        <v>0.887609636335242</v>
+        <v>0.8876096363352414</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01448764368338263</v>
+        <v>0.01448764368338262</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1846184976483513</v>
+        <v>0.1846184976483511</v>
       </c>
       <c r="H16" t="n">
-        <v>1.641426279091706</v>
+        <v>1.641426279091705</v>
       </c>
       <c r="I16" t="n">
-        <v>5.551981729279511</v>
+        <v>5.551981729279508</v>
       </c>
       <c r="J16" t="n">
-        <v>13.05252778373843</v>
+        <v>13.05252778373842</v>
       </c>
       <c r="K16" t="n">
-        <v>21.44931272678117</v>
+        <v>21.44931272678116</v>
       </c>
       <c r="L16" t="n">
-        <v>27.44773555037397</v>
+        <v>27.44773555037396</v>
       </c>
       <c r="M16" t="n">
-        <v>28.93978868136837</v>
+        <v>28.93978868136835</v>
       </c>
       <c r="N16" t="n">
-        <v>28.25166519013363</v>
+        <v>28.25166519013361</v>
       </c>
       <c r="O16" t="n">
-        <v>26.09498546760515</v>
+        <v>26.09498546760513</v>
       </c>
       <c r="P16" t="n">
-        <v>22.32876811557877</v>
+        <v>22.32876811557875</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.45928165308149</v>
+        <v>15.45928165308148</v>
       </c>
       <c r="R16" t="n">
-        <v>8.301118994261319</v>
+        <v>8.301118994261314</v>
       </c>
       <c r="S16" t="n">
-        <v>3.217396909017175</v>
+        <v>3.217396909017173</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7888244899520461</v>
+        <v>0.7888244899520456</v>
       </c>
       <c r="U16" t="n">
         <v>0.01007009987172826</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4115752711393119</v>
+        <v>0.4115752711393116</v>
       </c>
       <c r="H17" t="n">
-        <v>4.215045245555479</v>
+        <v>4.215045245555475</v>
       </c>
       <c r="I17" t="n">
-        <v>15.86725564059834</v>
+        <v>15.86725564059832</v>
       </c>
       <c r="J17" t="n">
-        <v>34.9319366688602</v>
+        <v>34.93193666886017</v>
       </c>
       <c r="K17" t="n">
-        <v>52.35391789618728</v>
+        <v>52.35391789618725</v>
       </c>
       <c r="L17" t="n">
-        <v>64.94966460031701</v>
+        <v>64.94966460031696</v>
       </c>
       <c r="M17" t="n">
-        <v>72.26901632844074</v>
+        <v>72.2690163284407</v>
       </c>
       <c r="N17" t="n">
-        <v>73.43840456756531</v>
+        <v>73.43840456756527</v>
       </c>
       <c r="O17" t="n">
-        <v>69.34580296517379</v>
+        <v>69.34580296517373</v>
       </c>
       <c r="P17" t="n">
-        <v>59.18503845892202</v>
+        <v>59.18503845892197</v>
       </c>
       <c r="Q17" t="n">
-        <v>44.44549906124539</v>
+        <v>44.44549906124536</v>
       </c>
       <c r="R17" t="n">
-        <v>25.85361512570482</v>
+        <v>25.8536151257048</v>
       </c>
       <c r="S17" t="n">
-        <v>9.378771491087079</v>
+        <v>9.378771491087072</v>
       </c>
       <c r="T17" t="n">
-        <v>1.801670749412339</v>
+        <v>1.801670749412337</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03292602169114494</v>
+        <v>0.03292602169114492</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2202121839874159</v>
+        <v>0.2202121839874158</v>
       </c>
       <c r="H18" t="n">
-        <v>2.12678609272057</v>
+        <v>2.126786092720569</v>
       </c>
       <c r="I18" t="n">
-        <v>7.581866860970242</v>
+        <v>7.581866860970238</v>
       </c>
       <c r="J18" t="n">
-        <v>20.80522217224968</v>
+        <v>20.80522217224967</v>
       </c>
       <c r="K18" t="n">
-        <v>35.55943849940655</v>
+        <v>35.55943849940653</v>
       </c>
       <c r="L18" t="n">
-        <v>47.8140533697238</v>
+        <v>47.81405336972377</v>
       </c>
       <c r="M18" t="n">
-        <v>55.79674503926762</v>
+        <v>55.79674503926758</v>
       </c>
       <c r="N18" t="n">
-        <v>57.27351885206043</v>
+        <v>57.27351885206039</v>
       </c>
       <c r="O18" t="n">
-        <v>52.39408045949716</v>
+        <v>52.39408045949713</v>
       </c>
       <c r="P18" t="n">
-        <v>42.05086871247419</v>
+        <v>42.05086871247416</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.1098921174112</v>
+        <v>28.10989211741118</v>
       </c>
       <c r="R18" t="n">
-        <v>13.6724722654643</v>
+        <v>13.67247226546429</v>
       </c>
       <c r="S18" t="n">
-        <v>4.090344733275026</v>
+        <v>4.090344733275023</v>
       </c>
       <c r="T18" t="n">
-        <v>0.887609636335242</v>
+        <v>0.8876096363352414</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01448764368338263</v>
+        <v>0.01448764368338262</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1846184976483513</v>
+        <v>0.1846184976483511</v>
       </c>
       <c r="H19" t="n">
-        <v>1.641426279091706</v>
+        <v>1.641426279091705</v>
       </c>
       <c r="I19" t="n">
-        <v>5.551981729279511</v>
+        <v>5.551981729279508</v>
       </c>
       <c r="J19" t="n">
-        <v>13.05252778373843</v>
+        <v>13.05252778373842</v>
       </c>
       <c r="K19" t="n">
-        <v>21.44931272678117</v>
+        <v>21.44931272678116</v>
       </c>
       <c r="L19" t="n">
-        <v>27.44773555037397</v>
+        <v>27.44773555037396</v>
       </c>
       <c r="M19" t="n">
-        <v>28.93978868136837</v>
+        <v>28.93978868136835</v>
       </c>
       <c r="N19" t="n">
-        <v>28.25166519013363</v>
+        <v>28.25166519013361</v>
       </c>
       <c r="O19" t="n">
-        <v>26.09498546760515</v>
+        <v>26.09498546760513</v>
       </c>
       <c r="P19" t="n">
-        <v>22.32876811557877</v>
+        <v>22.32876811557875</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.45928165308149</v>
+        <v>15.45928165308148</v>
       </c>
       <c r="R19" t="n">
-        <v>8.301118994261319</v>
+        <v>8.301118994261314</v>
       </c>
       <c r="S19" t="n">
-        <v>3.217396909017175</v>
+        <v>3.217396909017173</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7888244899520461</v>
+        <v>0.7888244899520456</v>
       </c>
       <c r="U19" t="n">
         <v>0.01007009987172826</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4115752711393119</v>
+        <v>0.4115752711393116</v>
       </c>
       <c r="H20" t="n">
-        <v>4.215045245555479</v>
+        <v>4.215045245555475</v>
       </c>
       <c r="I20" t="n">
-        <v>15.86725564059834</v>
+        <v>15.86725564059832</v>
       </c>
       <c r="J20" t="n">
-        <v>34.9319366688602</v>
+        <v>34.93193666886017</v>
       </c>
       <c r="K20" t="n">
-        <v>52.35391789618728</v>
+        <v>52.35391789618725</v>
       </c>
       <c r="L20" t="n">
-        <v>64.94966460031701</v>
+        <v>64.94966460031696</v>
       </c>
       <c r="M20" t="n">
-        <v>72.26901632844074</v>
+        <v>72.2690163284407</v>
       </c>
       <c r="N20" t="n">
-        <v>73.43840456756531</v>
+        <v>73.43840456756527</v>
       </c>
       <c r="O20" t="n">
-        <v>69.34580296517379</v>
+        <v>69.34580296517373</v>
       </c>
       <c r="P20" t="n">
-        <v>59.18503845892202</v>
+        <v>59.18503845892197</v>
       </c>
       <c r="Q20" t="n">
-        <v>44.44549906124539</v>
+        <v>44.44549906124536</v>
       </c>
       <c r="R20" t="n">
-        <v>25.85361512570482</v>
+        <v>25.8536151257048</v>
       </c>
       <c r="S20" t="n">
-        <v>9.378771491087079</v>
+        <v>9.378771491087072</v>
       </c>
       <c r="T20" t="n">
-        <v>1.801670749412339</v>
+        <v>1.801670749412337</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03292602169114494</v>
+        <v>0.03292602169114492</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2202121839874159</v>
+        <v>0.2202121839874158</v>
       </c>
       <c r="H21" t="n">
-        <v>2.12678609272057</v>
+        <v>2.126786092720569</v>
       </c>
       <c r="I21" t="n">
-        <v>7.581866860970242</v>
+        <v>7.581866860970238</v>
       </c>
       <c r="J21" t="n">
-        <v>20.80522217224968</v>
+        <v>20.80522217224967</v>
       </c>
       <c r="K21" t="n">
-        <v>35.55943849940655</v>
+        <v>35.55943849940653</v>
       </c>
       <c r="L21" t="n">
-        <v>47.8140533697238</v>
+        <v>47.81405336972377</v>
       </c>
       <c r="M21" t="n">
-        <v>55.79674503926762</v>
+        <v>55.79674503926758</v>
       </c>
       <c r="N21" t="n">
-        <v>57.27351885206043</v>
+        <v>57.27351885206039</v>
       </c>
       <c r="O21" t="n">
-        <v>52.39408045949716</v>
+        <v>52.39408045949713</v>
       </c>
       <c r="P21" t="n">
-        <v>42.05086871247419</v>
+        <v>42.05086871247416</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.1098921174112</v>
+        <v>28.10989211741118</v>
       </c>
       <c r="R21" t="n">
-        <v>13.6724722654643</v>
+        <v>13.67247226546429</v>
       </c>
       <c r="S21" t="n">
-        <v>4.090344733275026</v>
+        <v>4.090344733275023</v>
       </c>
       <c r="T21" t="n">
-        <v>0.887609636335242</v>
+        <v>0.8876096363352414</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01448764368338263</v>
+        <v>0.01448764368338262</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1846184976483513</v>
+        <v>0.1846184976483511</v>
       </c>
       <c r="H22" t="n">
-        <v>1.641426279091706</v>
+        <v>1.641426279091705</v>
       </c>
       <c r="I22" t="n">
-        <v>5.551981729279511</v>
+        <v>5.551981729279508</v>
       </c>
       <c r="J22" t="n">
-        <v>13.05252778373843</v>
+        <v>13.05252778373842</v>
       </c>
       <c r="K22" t="n">
-        <v>21.44931272678117</v>
+        <v>21.44931272678116</v>
       </c>
       <c r="L22" t="n">
-        <v>27.44773555037397</v>
+        <v>27.44773555037396</v>
       </c>
       <c r="M22" t="n">
-        <v>28.93978868136837</v>
+        <v>28.93978868136835</v>
       </c>
       <c r="N22" t="n">
-        <v>28.25166519013363</v>
+        <v>28.25166519013361</v>
       </c>
       <c r="O22" t="n">
-        <v>26.09498546760515</v>
+        <v>26.09498546760513</v>
       </c>
       <c r="P22" t="n">
-        <v>22.32876811557877</v>
+        <v>22.32876811557875</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.45928165308149</v>
+        <v>15.45928165308148</v>
       </c>
       <c r="R22" t="n">
-        <v>8.301118994261319</v>
+        <v>8.301118994261314</v>
       </c>
       <c r="S22" t="n">
-        <v>3.217396909017175</v>
+        <v>3.217396909017173</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7888244899520461</v>
+        <v>0.7888244899520456</v>
       </c>
       <c r="U22" t="n">
         <v>0.01007009987172826</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4115752711393119</v>
+        <v>0.4115752711393116</v>
       </c>
       <c r="H23" t="n">
-        <v>4.215045245555479</v>
+        <v>4.215045245555475</v>
       </c>
       <c r="I23" t="n">
-        <v>15.86725564059834</v>
+        <v>15.86725564059832</v>
       </c>
       <c r="J23" t="n">
-        <v>34.9319366688602</v>
+        <v>34.93193666886017</v>
       </c>
       <c r="K23" t="n">
-        <v>52.35391789618728</v>
+        <v>52.35391789618725</v>
       </c>
       <c r="L23" t="n">
-        <v>64.94966460031701</v>
+        <v>64.94966460031696</v>
       </c>
       <c r="M23" t="n">
-        <v>72.26901632844074</v>
+        <v>72.2690163284407</v>
       </c>
       <c r="N23" t="n">
-        <v>73.43840456756531</v>
+        <v>73.43840456756527</v>
       </c>
       <c r="O23" t="n">
-        <v>69.34580296517379</v>
+        <v>69.34580296517373</v>
       </c>
       <c r="P23" t="n">
-        <v>59.18503845892202</v>
+        <v>59.18503845892197</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.44549906124539</v>
+        <v>44.44549906124536</v>
       </c>
       <c r="R23" t="n">
-        <v>25.85361512570482</v>
+        <v>25.8536151257048</v>
       </c>
       <c r="S23" t="n">
-        <v>9.378771491087079</v>
+        <v>9.378771491087072</v>
       </c>
       <c r="T23" t="n">
-        <v>1.801670749412339</v>
+        <v>1.801670749412337</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03292602169114494</v>
+        <v>0.03292602169114492</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2202121839874159</v>
+        <v>0.2202121839874158</v>
       </c>
       <c r="H24" t="n">
-        <v>2.12678609272057</v>
+        <v>2.126786092720569</v>
       </c>
       <c r="I24" t="n">
-        <v>7.581866860970242</v>
+        <v>7.581866860970238</v>
       </c>
       <c r="J24" t="n">
-        <v>20.80522217224968</v>
+        <v>20.80522217224967</v>
       </c>
       <c r="K24" t="n">
-        <v>35.55943849940655</v>
+        <v>35.55943849940653</v>
       </c>
       <c r="L24" t="n">
-        <v>47.8140533697238</v>
+        <v>47.81405336972377</v>
       </c>
       <c r="M24" t="n">
-        <v>55.79674503926762</v>
+        <v>55.79674503926758</v>
       </c>
       <c r="N24" t="n">
-        <v>57.27351885206043</v>
+        <v>57.27351885206039</v>
       </c>
       <c r="O24" t="n">
-        <v>52.39408045949716</v>
+        <v>52.39408045949713</v>
       </c>
       <c r="P24" t="n">
-        <v>42.05086871247419</v>
+        <v>42.05086871247416</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.1098921174112</v>
+        <v>28.10989211741118</v>
       </c>
       <c r="R24" t="n">
-        <v>13.6724722654643</v>
+        <v>13.67247226546429</v>
       </c>
       <c r="S24" t="n">
-        <v>4.090344733275026</v>
+        <v>4.090344733275023</v>
       </c>
       <c r="T24" t="n">
-        <v>0.887609636335242</v>
+        <v>0.8876096363352414</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01448764368338263</v>
+        <v>0.01448764368338262</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,46 +32856,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1846184976483513</v>
+        <v>0.1846184976483511</v>
       </c>
       <c r="H25" t="n">
-        <v>1.641426279091706</v>
+        <v>1.641426279091705</v>
       </c>
       <c r="I25" t="n">
-        <v>5.551981729279511</v>
+        <v>5.551981729279508</v>
       </c>
       <c r="J25" t="n">
-        <v>13.05252778373843</v>
+        <v>13.05252778373842</v>
       </c>
       <c r="K25" t="n">
-        <v>21.44931272678117</v>
+        <v>21.44931272678116</v>
       </c>
       <c r="L25" t="n">
-        <v>27.44773555037397</v>
+        <v>27.44773555037396</v>
       </c>
       <c r="M25" t="n">
-        <v>28.93978868136837</v>
+        <v>28.93978868136835</v>
       </c>
       <c r="N25" t="n">
-        <v>28.25166519013363</v>
+        <v>28.25166519013361</v>
       </c>
       <c r="O25" t="n">
-        <v>26.09498546760515</v>
+        <v>26.09498546760513</v>
       </c>
       <c r="P25" t="n">
-        <v>22.32876811557877</v>
+        <v>22.32876811557875</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.45928165308149</v>
+        <v>15.45928165308148</v>
       </c>
       <c r="R25" t="n">
-        <v>8.301118994261319</v>
+        <v>8.301118994261314</v>
       </c>
       <c r="S25" t="n">
-        <v>3.217396909017175</v>
+        <v>3.217396909017173</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7888244899520461</v>
+        <v>0.7888244899520456</v>
       </c>
       <c r="U25" t="n">
         <v>0.01007009987172826</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4115752711393119</v>
+        <v>0.4115752711393116</v>
       </c>
       <c r="H26" t="n">
-        <v>4.215045245555479</v>
+        <v>4.215045245555475</v>
       </c>
       <c r="I26" t="n">
-        <v>15.86725564059834</v>
+        <v>15.86725564059832</v>
       </c>
       <c r="J26" t="n">
-        <v>34.9319366688602</v>
+        <v>34.93193666886017</v>
       </c>
       <c r="K26" t="n">
-        <v>52.35391789618728</v>
+        <v>52.35391789618725</v>
       </c>
       <c r="L26" t="n">
-        <v>64.94966460031701</v>
+        <v>64.94966460031696</v>
       </c>
       <c r="M26" t="n">
-        <v>72.26901632844074</v>
+        <v>72.2690163284407</v>
       </c>
       <c r="N26" t="n">
-        <v>73.43840456756531</v>
+        <v>73.43840456756527</v>
       </c>
       <c r="O26" t="n">
-        <v>69.34580296517379</v>
+        <v>69.34580296517373</v>
       </c>
       <c r="P26" t="n">
-        <v>59.18503845892202</v>
+        <v>59.18503845892197</v>
       </c>
       <c r="Q26" t="n">
-        <v>44.44549906124539</v>
+        <v>44.44549906124536</v>
       </c>
       <c r="R26" t="n">
-        <v>25.85361512570482</v>
+        <v>25.8536151257048</v>
       </c>
       <c r="S26" t="n">
-        <v>9.378771491087079</v>
+        <v>9.378771491087072</v>
       </c>
       <c r="T26" t="n">
-        <v>1.801670749412339</v>
+        <v>1.801670749412337</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03292602169114494</v>
+        <v>0.03292602169114492</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2202121839874159</v>
+        <v>0.2202121839874158</v>
       </c>
       <c r="H27" t="n">
-        <v>2.12678609272057</v>
+        <v>2.126786092720569</v>
       </c>
       <c r="I27" t="n">
-        <v>7.581866860970242</v>
+        <v>7.581866860970238</v>
       </c>
       <c r="J27" t="n">
-        <v>20.80522217224968</v>
+        <v>20.80522217224967</v>
       </c>
       <c r="K27" t="n">
-        <v>35.55943849940655</v>
+        <v>35.55943849940653</v>
       </c>
       <c r="L27" t="n">
-        <v>47.8140533697238</v>
+        <v>47.81405336972377</v>
       </c>
       <c r="M27" t="n">
-        <v>55.79674503926762</v>
+        <v>55.79674503926758</v>
       </c>
       <c r="N27" t="n">
-        <v>57.27351885206043</v>
+        <v>57.27351885206039</v>
       </c>
       <c r="O27" t="n">
-        <v>52.39408045949716</v>
+        <v>52.39408045949713</v>
       </c>
       <c r="P27" t="n">
-        <v>42.05086871247419</v>
+        <v>42.05086871247416</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.1098921174112</v>
+        <v>28.10989211741118</v>
       </c>
       <c r="R27" t="n">
-        <v>13.6724722654643</v>
+        <v>13.67247226546429</v>
       </c>
       <c r="S27" t="n">
-        <v>4.090344733275026</v>
+        <v>4.090344733275023</v>
       </c>
       <c r="T27" t="n">
-        <v>0.887609636335242</v>
+        <v>0.8876096363352414</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01448764368338263</v>
+        <v>0.01448764368338262</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,46 +33093,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1846184976483513</v>
+        <v>0.1846184976483511</v>
       </c>
       <c r="H28" t="n">
-        <v>1.641426279091706</v>
+        <v>1.641426279091705</v>
       </c>
       <c r="I28" t="n">
-        <v>5.551981729279511</v>
+        <v>5.551981729279508</v>
       </c>
       <c r="J28" t="n">
-        <v>13.05252778373843</v>
+        <v>13.05252778373842</v>
       </c>
       <c r="K28" t="n">
-        <v>21.44931272678117</v>
+        <v>21.44931272678116</v>
       </c>
       <c r="L28" t="n">
-        <v>27.44773555037397</v>
+        <v>27.44773555037396</v>
       </c>
       <c r="M28" t="n">
-        <v>28.93978868136837</v>
+        <v>28.93978868136835</v>
       </c>
       <c r="N28" t="n">
-        <v>28.25166519013363</v>
+        <v>28.25166519013361</v>
       </c>
       <c r="O28" t="n">
-        <v>26.09498546760515</v>
+        <v>26.09498546760513</v>
       </c>
       <c r="P28" t="n">
-        <v>22.32876811557877</v>
+        <v>22.32876811557875</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.45928165308149</v>
+        <v>15.45928165308148</v>
       </c>
       <c r="R28" t="n">
-        <v>8.301118994261319</v>
+        <v>8.301118994261314</v>
       </c>
       <c r="S28" t="n">
-        <v>3.217396909017175</v>
+        <v>3.217396909017173</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7888244899520461</v>
+        <v>0.7888244899520456</v>
       </c>
       <c r="U28" t="n">
         <v>0.01007009987172826</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4115752711393119</v>
+        <v>0.4115752711393116</v>
       </c>
       <c r="H29" t="n">
-        <v>4.215045245555479</v>
+        <v>4.215045245555475</v>
       </c>
       <c r="I29" t="n">
-        <v>15.86725564059834</v>
+        <v>15.86725564059832</v>
       </c>
       <c r="J29" t="n">
-        <v>34.9319366688602</v>
+        <v>34.93193666886017</v>
       </c>
       <c r="K29" t="n">
-        <v>52.35391789618728</v>
+        <v>52.35391789618725</v>
       </c>
       <c r="L29" t="n">
-        <v>64.94966460031701</v>
+        <v>64.94966460031696</v>
       </c>
       <c r="M29" t="n">
-        <v>72.26901632844074</v>
+        <v>72.2690163284407</v>
       </c>
       <c r="N29" t="n">
-        <v>73.43840456756531</v>
+        <v>73.43840456756527</v>
       </c>
       <c r="O29" t="n">
-        <v>69.34580296517379</v>
+        <v>69.34580296517373</v>
       </c>
       <c r="P29" t="n">
-        <v>59.18503845892202</v>
+        <v>59.18503845892197</v>
       </c>
       <c r="Q29" t="n">
-        <v>44.44549906124539</v>
+        <v>44.44549906124536</v>
       </c>
       <c r="R29" t="n">
-        <v>25.85361512570482</v>
+        <v>25.8536151257048</v>
       </c>
       <c r="S29" t="n">
-        <v>9.378771491087079</v>
+        <v>9.378771491087072</v>
       </c>
       <c r="T29" t="n">
-        <v>1.801670749412339</v>
+        <v>1.801670749412337</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03292602169114494</v>
+        <v>0.03292602169114492</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2202121839874159</v>
+        <v>0.2202121839874158</v>
       </c>
       <c r="H30" t="n">
-        <v>2.12678609272057</v>
+        <v>2.126786092720569</v>
       </c>
       <c r="I30" t="n">
-        <v>7.581866860970242</v>
+        <v>7.581866860970238</v>
       </c>
       <c r="J30" t="n">
-        <v>20.80522217224968</v>
+        <v>20.80522217224967</v>
       </c>
       <c r="K30" t="n">
-        <v>35.55943849940655</v>
+        <v>35.55943849940653</v>
       </c>
       <c r="L30" t="n">
-        <v>47.8140533697238</v>
+        <v>47.81405336972377</v>
       </c>
       <c r="M30" t="n">
-        <v>55.79674503926762</v>
+        <v>55.79674503926758</v>
       </c>
       <c r="N30" t="n">
-        <v>57.27351885206043</v>
+        <v>57.27351885206039</v>
       </c>
       <c r="O30" t="n">
-        <v>52.39408045949716</v>
+        <v>52.39408045949713</v>
       </c>
       <c r="P30" t="n">
-        <v>42.05086871247419</v>
+        <v>42.05086871247416</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.1098921174112</v>
+        <v>28.10989211741118</v>
       </c>
       <c r="R30" t="n">
-        <v>13.6724722654643</v>
+        <v>13.67247226546429</v>
       </c>
       <c r="S30" t="n">
-        <v>4.090344733275026</v>
+        <v>4.090344733275023</v>
       </c>
       <c r="T30" t="n">
-        <v>0.887609636335242</v>
+        <v>0.8876096363352414</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01448764368338263</v>
+        <v>0.01448764368338262</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,46 +33330,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1846184976483513</v>
+        <v>0.1846184976483511</v>
       </c>
       <c r="H31" t="n">
-        <v>1.641426279091706</v>
+        <v>1.641426279091705</v>
       </c>
       <c r="I31" t="n">
-        <v>5.551981729279511</v>
+        <v>5.551981729279508</v>
       </c>
       <c r="J31" t="n">
-        <v>13.05252778373843</v>
+        <v>13.05252778373842</v>
       </c>
       <c r="K31" t="n">
-        <v>21.44931272678117</v>
+        <v>21.44931272678116</v>
       </c>
       <c r="L31" t="n">
-        <v>27.44773555037397</v>
+        <v>27.44773555037396</v>
       </c>
       <c r="M31" t="n">
-        <v>28.93978868136837</v>
+        <v>28.93978868136835</v>
       </c>
       <c r="N31" t="n">
-        <v>28.25166519013363</v>
+        <v>28.25166519013361</v>
       </c>
       <c r="O31" t="n">
-        <v>26.09498546760515</v>
+        <v>26.09498546760513</v>
       </c>
       <c r="P31" t="n">
-        <v>22.32876811557877</v>
+        <v>22.32876811557875</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.45928165308149</v>
+        <v>15.45928165308148</v>
       </c>
       <c r="R31" t="n">
-        <v>8.301118994261319</v>
+        <v>8.301118994261314</v>
       </c>
       <c r="S31" t="n">
-        <v>3.217396909017175</v>
+        <v>3.217396909017173</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7888244899520461</v>
+        <v>0.7888244899520456</v>
       </c>
       <c r="U31" t="n">
         <v>0.01007009987172826</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>122.066313916455</v>
+        <v>31.75489469461913</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>122.0663139164549</v>
       </c>
       <c r="L11" t="n">
-        <v>47.95910536562444</v>
+        <v>47.9591053656244</v>
       </c>
       <c r="M11" t="n">
-        <v>82.5313814945235</v>
+        <v>82.53138149452346</v>
       </c>
       <c r="N11" t="n">
-        <v>76.95527399869012</v>
+        <v>76.95527399869007</v>
       </c>
       <c r="O11" t="n">
-        <v>35.38450248897496</v>
+        <v>122.0663139164549</v>
       </c>
       <c r="P11" t="n">
-        <v>7.109856260985345</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>111.3268498611138</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.76635653483955</v>
+        <v>38.76635653483953</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>115.4683332729469</v>
       </c>
       <c r="M12" t="n">
-        <v>122.066313916455</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>115.468333272947</v>
+        <v>122.0663139164549</v>
       </c>
       <c r="O12" t="n">
-        <v>122.066313916455</v>
+        <v>122.0663139164549</v>
       </c>
       <c r="P12" t="n">
-        <v>84.96596574567059</v>
+        <v>84.96596574567056</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35544,40 +35544,40 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>34.0569975271062</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>55.33152824836785</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>58.83803728685368</v>
       </c>
       <c r="F13" t="n">
-        <v>61.5872962806319</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>34.70914788373038</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>35.72671775837865</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>80.42857650387857</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>122.0663139164549</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>66.702794605421</v>
       </c>
       <c r="N13" t="n">
-        <v>33.14443942137508</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -35586,7 +35586,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.47959519301907</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.17217869175014</v>
+        <v>122.0663139164549</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>47.9591053656244</v>
+      </c>
+      <c r="M14" t="n">
+        <v>82.53138149452346</v>
+      </c>
+      <c r="N14" t="n">
+        <v>108.7101686933092</v>
+      </c>
+      <c r="O14" t="n">
         <v>122.0663139164549</v>
       </c>
-      <c r="L14" t="n">
-        <v>47.95910536562444</v>
-      </c>
-      <c r="M14" t="n">
-        <v>82.5313814945235</v>
-      </c>
-      <c r="N14" t="n">
-        <v>76.95527399869012</v>
-      </c>
-      <c r="O14" t="n">
-        <v>35.38450248897496</v>
-      </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>111.3268498611139</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>5.937677569234907</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.76635653483955</v>
+        <v>35.15243601286767</v>
       </c>
       <c r="L15" t="n">
         <v>119.0822537949188</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>122.0663139164549</v>
       </c>
       <c r="N15" t="n">
-        <v>118.452393394483</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>122.0663139164549</v>
       </c>
       <c r="P15" t="n">
-        <v>84.96596574567059</v>
+        <v>84.96596574567056</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35787,31 +35787,31 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>58.83803728685365</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>31.81558186878205</v>
       </c>
       <c r="H16" t="n">
-        <v>34.70914788373047</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>35.72671775837875</v>
       </c>
       <c r="J16" t="n">
-        <v>80.42857650387856</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>80.58036544512663</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>122.0663139164549</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>16.36079485253757</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -35820,10 +35820,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>122.0663139164549</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.47959519301915</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,19 +35884,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>71.33822947234137</v>
       </c>
       <c r="L17" t="n">
-        <v>47.95910536562444</v>
+        <v>47.9591053656244</v>
       </c>
       <c r="M17" t="n">
-        <v>82.5313814945235</v>
+        <v>82.53138149452346</v>
       </c>
       <c r="N17" t="n">
-        <v>76.95527399869012</v>
+        <v>76.95527399869007</v>
       </c>
       <c r="O17" t="n">
-        <v>35.38450248897496</v>
+        <v>35.3845024889749</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>71.33822947234115</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35972,13 +35972,13 @@
         <v>122.0663139164549</v>
       </c>
       <c r="N18" t="n">
-        <v>35.15243601286761</v>
+        <v>122.0663139164549</v>
       </c>
       <c r="O18" t="n">
-        <v>122.0663139164549</v>
+        <v>35.15243601286767</v>
       </c>
       <c r="P18" t="n">
-        <v>84.96596574567059</v>
+        <v>84.96596574567056</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36121,19 +36121,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>122.0663139164549</v>
       </c>
       <c r="L20" t="n">
-        <v>47.95910536562444</v>
+        <v>47.9591053656244</v>
       </c>
       <c r="M20" t="n">
-        <v>82.5313814945235</v>
+        <v>82.53138149452346</v>
       </c>
       <c r="N20" t="n">
-        <v>76.95527399869012</v>
+        <v>76.95527399869007</v>
       </c>
       <c r="O20" t="n">
-        <v>35.38450248897496</v>
+        <v>35.3845024889749</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36142,16 +36142,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>71.33822947234115</v>
+        <v>118.4367061220991</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>98.43515995857631</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>70.72963060763635</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.76635653483955</v>
+        <v>38.76635653483953</v>
       </c>
       <c r="L21" t="n">
-        <v>119.0822537949188</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>122.0663139164549</v>
       </c>
       <c r="N21" t="n">
-        <v>118.452393394483</v>
+        <v>115.468333272947</v>
       </c>
       <c r="O21" t="n">
         <v>122.0663139164549</v>
       </c>
       <c r="P21" t="n">
-        <v>84.96596574567059</v>
+        <v>84.96596574567056</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36361,16 +36361,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>47.95910536562444</v>
+        <v>47.9591053656244</v>
       </c>
       <c r="M23" t="n">
-        <v>82.5313814945235</v>
+        <v>122.0663139164547</v>
       </c>
       <c r="N23" t="n">
-        <v>76.95527399869012</v>
+        <v>86.01475333455576</v>
       </c>
       <c r="O23" t="n">
-        <v>35.38450248897496</v>
+        <v>35.3845024889749</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36382,13 +36382,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>93.47344832218009</v>
+        <v>93.47344832218008</v>
       </c>
       <c r="T23" t="n">
         <v>98.43515995857631</v>
       </c>
       <c r="U23" t="n">
-        <v>48.5944117577974</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.76635653483955</v>
+        <v>38.76635653483953</v>
       </c>
       <c r="L24" t="n">
-        <v>119.0822537949188</v>
+        <v>115.4683332729466</v>
       </c>
       <c r="M24" t="n">
-        <v>118.452393394483</v>
+        <v>122.0663139164547</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>122.0663139164547</v>
       </c>
       <c r="O24" t="n">
-        <v>122.0663139164549</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>84.96596574567059</v>
+        <v>84.96596574567056</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>261.1869870197685</v>
       </c>
       <c r="M26" t="n">
-        <v>295.7592631486676</v>
+        <v>295.7592631486675</v>
       </c>
       <c r="N26" t="n">
         <v>290.1831556528342</v>
@@ -36610,13 +36610,13 @@
         <v>248.612384143119</v>
       </c>
       <c r="P26" t="n">
-        <v>198.834228186758</v>
+        <v>198.8342281867584</v>
       </c>
       <c r="Q26" t="n">
         <v>124.0405530161793</v>
       </c>
       <c r="R26" t="n">
-        <v>18.65138072430034</v>
+        <v>18.65138072430033</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.76635653483955</v>
+        <v>38.76635653483953</v>
       </c>
       <c r="L27" t="n">
         <v>119.0822537949188</v>
@@ -36683,13 +36683,13 @@
         <v>184.1701049644052</v>
       </c>
       <c r="N27" t="n">
-        <v>207.6504886850165</v>
+        <v>207.6504886850164</v>
       </c>
       <c r="O27" t="n">
         <v>133.6494451285957</v>
       </c>
       <c r="P27" t="n">
-        <v>84.96596574567059</v>
+        <v>84.96596574567056</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36729,7 +36729,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>46.77070068217174</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -36738,10 +36738,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>74.30099943569743</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>32.57433193734742</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.14227965894401</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>66.9144913821391</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36768,7 +36768,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>155.0127378572614</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>136.8584214319507</v>
+        <v>136.8584214319508</v>
       </c>
       <c r="K29" t="n">
         <v>207.1184086215698</v>
       </c>
       <c r="L29" t="n">
-        <v>261.1869870197684</v>
+        <v>261.1869870197685</v>
       </c>
       <c r="M29" t="n">
-        <v>295.7592631486675</v>
+        <v>295.7592631486676</v>
       </c>
       <c r="N29" t="n">
-        <v>290.1831556528341</v>
+        <v>290.1831556528342</v>
       </c>
       <c r="O29" t="n">
-        <v>248.6123841431199</v>
+        <v>248.612384143119</v>
       </c>
       <c r="P29" t="n">
-        <v>198.8342281867579</v>
+        <v>198.834228186758</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.0405530161792</v>
+        <v>124.0405530161793</v>
       </c>
       <c r="R29" t="n">
-        <v>18.65138072430027</v>
+        <v>18.65138072430037</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.76635653483955</v>
+        <v>38.76635653483953</v>
       </c>
       <c r="L30" t="n">
         <v>119.0822537949188</v>
@@ -36920,13 +36920,13 @@
         <v>184.1701049644052</v>
       </c>
       <c r="N30" t="n">
-        <v>207.6504886850165</v>
+        <v>207.6504886850164</v>
       </c>
       <c r="O30" t="n">
         <v>133.6494451285957</v>
       </c>
       <c r="P30" t="n">
-        <v>84.96596574567059</v>
+        <v>84.96596574567056</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36969,7 +36969,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.00529628802519</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>188.3524741887551</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -37005,10 +37005,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>148.1644721286966</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.19329834808451</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>261.1869870197685</v>
       </c>
       <c r="M32" t="n">
-        <v>295.7592631486676</v>
+        <v>295.7592631486679</v>
       </c>
       <c r="N32" t="n">
         <v>290.1831556528342</v>
@@ -37227,13 +37227,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
         <v>37.31670736487584</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>197.0410631119045</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.632419091087376</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>172.0855117787821</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>93.76930249984741</v>
       </c>
       <c r="L35" t="n">
-        <v>296.4140773665998</v>
+        <v>47.95910536562444</v>
       </c>
       <c r="M35" t="n">
-        <v>82.5313814945235</v>
+        <v>327.7888733605085</v>
       </c>
       <c r="N35" t="n">
-        <v>76.95527399869012</v>
+        <v>325.4102459996654</v>
       </c>
       <c r="O35" t="n">
         <v>283.8394744899503</v>
       </c>
       <c r="P35" t="n">
-        <v>118.2482608406027</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>159.2676433630106</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>53.87847107113161</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>21.04863671400342</v>
@@ -37446,37 +37446,37 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>83.72329480640558</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37543,31 +37543,31 @@
         <v>172.0855117787821</v>
       </c>
       <c r="K38" t="n">
-        <v>43.4545856700238</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>296.4140773665998</v>
       </c>
       <c r="M38" t="n">
-        <v>82.5313814945235</v>
+        <v>327.7888733605085</v>
       </c>
       <c r="N38" t="n">
-        <v>76.95527399869012</v>
+        <v>325.4102459996654</v>
       </c>
       <c r="O38" t="n">
-        <v>283.8394744899503</v>
+        <v>35.38450248897496</v>
       </c>
       <c r="P38" t="n">
-        <v>234.0613185335893</v>
+        <v>107.1855201227633</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>53.87847107113161</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>21.04863671400342</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>26.01034835039964</v>
@@ -37713,13 +37713,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
         <v>83.72329480640558</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,34 +37780,34 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>163.5778587945387</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>47.95910536562444</v>
+        <v>288.7816582755124</v>
       </c>
       <c r="M41" t="n">
         <v>82.5313814945235</v>
       </c>
       <c r="N41" t="n">
-        <v>317.777826908578</v>
+        <v>317.7778269085781</v>
       </c>
       <c r="O41" t="n">
-        <v>276.2070553988629</v>
+        <v>276.207055398863</v>
       </c>
       <c r="P41" t="n">
         <v>226.4288994425019</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.6352242719232</v>
+        <v>28.14447817652974</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>46.24605198004427</v>
       </c>
       <c r="S41" t="n">
-        <v>13.41621762291602</v>
+        <v>13.41621762291608</v>
       </c>
       <c r="T41" t="n">
-        <v>18.37792925931224</v>
+        <v>18.3779292593123</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37944,10 +37944,10 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>103.6715658570502</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>103.67156585705</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -38014,25 +38014,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>164.4530926876947</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>234.7130798773138</v>
       </c>
       <c r="L44" t="n">
-        <v>288.7816582755124</v>
+        <v>47.95910536562445</v>
       </c>
       <c r="M44" t="n">
-        <v>323.3539344044115</v>
+        <v>82.53138149452353</v>
       </c>
       <c r="N44" t="n">
-        <v>76.95527399869015</v>
+        <v>218.7744831050707</v>
       </c>
       <c r="O44" t="n">
-        <v>35.38450248897497</v>
+        <v>276.207055398863</v>
       </c>
       <c r="P44" t="n">
-        <v>197.6855428286135</v>
+        <v>226.4288994425019</v>
       </c>
       <c r="Q44" t="n">
         <v>151.6352242719232</v>
@@ -38178,7 +38178,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>103.6715658570501</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>103.6715658570501</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
